--- a/Documents/Screen_Layout.xlsx
+++ b/Documents/Screen_Layout.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="K0001_Homepage" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="46">
   <si>
     <t>27/6/2016</t>
   </si>
@@ -163,12 +163,18 @@
   <si>
     <t>restaurant</t>
   </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Ins</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -227,6 +233,22 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -444,7 +466,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -467,6 +489,101 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -497,12 +614,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -512,49 +623,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -563,29 +635,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -593,36 +647,19 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -645,6 +682,574 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="3" name="Group 2"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="542925" y="2143125"/>
+          <a:ext cx="6191250" cy="428626"/>
+          <a:chOff x="495300" y="2781300"/>
+          <a:chExt cx="6172200" cy="428626"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="2" name="Group 1"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="495300" y="2781300"/>
+            <a:ext cx="6172200" cy="428626"/>
+            <a:chOff x="561975" y="2295525"/>
+            <a:chExt cx="6172200" cy="428626"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9" name="Rectangle 8"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="561975" y="2295525"/>
+              <a:ext cx="6172200" cy="428626"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="12" name="Group 11"/>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="902677" y="2374108"/>
+              <a:ext cx="1164250" cy="282712"/>
+              <a:chOff x="4106265" y="2224335"/>
+              <a:chExt cx="431559" cy="324756"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="8" name="Rectangle 7"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="4106265" y="2224340"/>
+                <a:ext cx="265616" cy="324751"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:r>
+                  <a:rPr lang="en-US" sz="800"/>
+                  <a:t>check</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="800" baseline="0"/>
+                  <a:t> in</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="800"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="10" name="Rounded Rectangle 9"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="4377986" y="2224335"/>
+                <a:ext cx="159838" cy="313526"/>
+              </a:xfrm>
+              <a:prstGeom prst="roundRect">
+                <a:avLst/>
+              </a:prstGeom>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:endParaRPr lang="en-US" sz="800"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="11" name="Down Arrow 10"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="4410421" y="2302243"/>
+                <a:ext cx="99966" cy="179471"/>
+              </a:xfrm>
+              <a:prstGeom prst="downArrow">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:endParaRPr lang="en-US" sz="800"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+        </xdr:grpSp>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="13" name="Group 12"/>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="2140585" y="2385312"/>
+              <a:ext cx="2288538" cy="281225"/>
+              <a:chOff x="3555478" y="2246797"/>
+              <a:chExt cx="848305" cy="323048"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="14" name="Rectangle 13"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="3555478" y="2246797"/>
+                <a:ext cx="262212" cy="323047"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:r>
+                  <a:rPr lang="en-US" sz="800"/>
+                  <a:t>checkout</a:t>
+                </a:r>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="15" name="Rounded Rectangle 14"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="4268534" y="2258026"/>
+                <a:ext cx="135249" cy="311819"/>
+              </a:xfrm>
+              <a:prstGeom prst="roundRect">
+                <a:avLst/>
+              </a:prstGeom>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:endParaRPr lang="en-US" sz="1100"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="16" name="Down Arrow 15"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="4283740" y="2334027"/>
+                <a:ext cx="98278" cy="157211"/>
+              </a:xfrm>
+              <a:prstGeom prst="downArrow">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:endParaRPr lang="en-US" sz="1100"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+        </xdr:grpSp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="21" name="Rounded Rectangle 20"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4714875" y="2379667"/>
+              <a:ext cx="645667" cy="277123"/>
+            </a:xfrm>
+            <a:prstGeom prst="roundRect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>Book</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" baseline="0"/>
+                <a:t> now</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="17" name="Group 16"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="2830107" y="2866833"/>
+            <a:ext cx="1113243" cy="285500"/>
+            <a:chOff x="4822851" y="1775160"/>
+            <a:chExt cx="412652" cy="327959"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="18" name="Rectangle 17"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5006997" y="1786389"/>
+              <a:ext cx="228506" cy="316730"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>people</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="19" name="Rounded Rectangle 18"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4822851" y="1775160"/>
+              <a:ext cx="154912" cy="316732"/>
+            </a:xfrm>
+            <a:prstGeom prst="roundRect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="20" name="Down Arrow 19"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4847127" y="1856071"/>
+              <a:ext cx="99800" cy="151097"/>
+            </a:xfrm>
+            <a:prstGeom prst="downArrow">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>18</xdr:col>
@@ -701,562 +1306,8 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="35" name="Group 34"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="4410075" y="2295525"/>
-          <a:ext cx="2143125" cy="2133600"/>
-          <a:chOff x="4057650" y="2133600"/>
-          <a:chExt cx="2143125" cy="2133600"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="9" name="Rectangle 8"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="4057650" y="2133600"/>
-            <a:ext cx="2143125" cy="2133600"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="12" name="Group 11"/>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="4191001" y="2505075"/>
-            <a:ext cx="885824" cy="257175"/>
-            <a:chOff x="4191001" y="2505075"/>
-            <a:chExt cx="885824" cy="257175"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="8" name="Rectangle 7"/>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="4191001" y="2505075"/>
-              <a:ext cx="571500" cy="247650"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:r>
-                <a:rPr lang="en-US" sz="800"/>
-                <a:t>check</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="800" baseline="0"/>
-                <a:t> in</a:t>
-              </a:r>
-              <a:endParaRPr lang="en-US" sz="800"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="10" name="Rounded Rectangle 9"/>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="4791075" y="2505075"/>
-              <a:ext cx="285750" cy="257175"/>
-            </a:xfrm>
-            <a:prstGeom prst="roundRect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr lang="en-US" sz="800"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="11" name="Down Arrow 10"/>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="4848225" y="2571750"/>
-              <a:ext cx="190500" cy="142875"/>
-            </a:xfrm>
-            <a:prstGeom prst="downArrow">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr lang="en-US" sz="800"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </xdr:grpSp>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="13" name="Group 12"/>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="5200650" y="2495550"/>
-            <a:ext cx="885824" cy="257175"/>
-            <a:chOff x="4191001" y="2505075"/>
-            <a:chExt cx="885824" cy="257175"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="14" name="Rectangle 13"/>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="4191001" y="2505075"/>
-              <a:ext cx="571500" cy="247650"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:r>
-                <a:rPr lang="en-US" sz="800"/>
-                <a:t>checkout</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="15" name="Rounded Rectangle 14"/>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="4791075" y="2505075"/>
-              <a:ext cx="285750" cy="257175"/>
-            </a:xfrm>
-            <a:prstGeom prst="roundRect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr lang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="16" name="Down Arrow 15"/>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="4848225" y="2571750"/>
-              <a:ext cx="190500" cy="142875"/>
-            </a:xfrm>
-            <a:prstGeom prst="downArrow">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr lang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </xdr:grpSp>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="17" name="Group 16"/>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="4143375" y="2962275"/>
-            <a:ext cx="952499" cy="257175"/>
-            <a:chOff x="4124326" y="2505075"/>
-            <a:chExt cx="952499" cy="257175"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="18" name="Rectangle 17"/>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="4124326" y="2505075"/>
-              <a:ext cx="638175" cy="247650"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100"/>
-                <a:t>people</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="19" name="Rounded Rectangle 18"/>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="4791075" y="2505075"/>
-              <a:ext cx="285750" cy="257175"/>
-            </a:xfrm>
-            <a:prstGeom prst="roundRect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr lang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="20" name="Down Arrow 19"/>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="4848225" y="2571750"/>
-              <a:ext cx="190500" cy="142875"/>
-            </a:xfrm>
-            <a:prstGeom prst="downArrow">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr lang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </xdr:grpSp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="21" name="Rounded Rectangle 20"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="4610100" y="3724275"/>
-            <a:ext cx="1219200" cy="352425"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100"/>
-              <a:t>Book</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100" baseline="0"/>
-              <a:t> now</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -1273,10 +1324,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="904875" y="5638800"/>
-          <a:ext cx="5467350" cy="1371600"/>
-          <a:chOff x="904875" y="5019675"/>
-          <a:chExt cx="5419725" cy="1371600"/>
+          <a:off x="914400" y="5638800"/>
+          <a:ext cx="5457825" cy="1371600"/>
+          <a:chOff x="914317" y="5019675"/>
+          <a:chExt cx="5410283" cy="1371600"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -1286,7 +1337,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="904875" y="5038725"/>
+            <a:off x="914317" y="5038725"/>
             <a:ext cx="1438275" cy="1352550"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -1315,14 +1366,14 @@
           <a:p>
             <a:pPr algn="ctr"/>
             <a:r>
-              <a:rPr lang="en-US" sz="1600"/>
+              <a:rPr lang="en-US" sz="1600" u="sng"/>
               <a:t>Phòng</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" sz="1600" baseline="0"/>
+              <a:rPr lang="en-US" sz="1600" u="sng" baseline="0"/>
               <a:t> ở</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US" sz="1600"/>
+            <a:endParaRPr lang="en-US" sz="1600" u="sng"/>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -1362,11 +1413,11 @@
           <a:p>
             <a:pPr algn="ctr"/>
             <a:r>
-              <a:rPr lang="en-US" sz="1600"/>
+              <a:rPr lang="en-US" sz="1600" u="sng"/>
               <a:t>  Ẩm</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" sz="1600" baseline="0"/>
+              <a:rPr lang="en-US" sz="1600" u="sng" baseline="0"/>
               <a:t> thực</a:t>
             </a:r>
             <a:r>
@@ -1413,7 +1464,7 @@
           <a:p>
             <a:pPr algn="ctr"/>
             <a:r>
-              <a:rPr lang="en-US" sz="1600"/>
+              <a:rPr lang="en-US" sz="1600" u="sng"/>
               <a:t>Tours</a:t>
             </a:r>
           </a:p>
@@ -1891,6 +1942,106 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:endParaRPr lang="en-US" sz="800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>95249</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Line Callout 2 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7381874" y="2028825"/>
+          <a:ext cx="2495551" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout2">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 46023"/>
+            <a:gd name="adj2" fmla="val -598"/>
+            <a:gd name="adj3" fmla="val 55114"/>
+            <a:gd name="adj4" fmla="val -11971"/>
+            <a:gd name="adj5" fmla="val 56647"/>
+            <a:gd name="adj6" fmla="val -61371"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Thanh</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> book phòng: 3 calendar, 1 button</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Trôi theo scrollbar</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -7361,8 +7512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR57"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13:AK14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AS36" sqref="AS36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="12" customHeight="1"/>
@@ -7371,330 +7522,330 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:44" ht="12" customHeight="1">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="31" t="s">
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="40" t="s">
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="47"/>
+      <c r="R1" s="48"/>
+      <c r="S1" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="T1" s="41"/>
-      <c r="U1" s="42"/>
-      <c r="V1" s="43" t="s">
+      <c r="T1" s="25"/>
+      <c r="U1" s="26"/>
+      <c r="V1" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="W1" s="32"/>
-      <c r="X1" s="32"/>
-      <c r="Y1" s="32"/>
-      <c r="Z1" s="32"/>
-      <c r="AA1" s="32"/>
-      <c r="AB1" s="32"/>
-      <c r="AC1" s="32"/>
-      <c r="AD1" s="33"/>
-      <c r="AE1" s="44" t="s">
+      <c r="W1" s="47"/>
+      <c r="X1" s="47"/>
+      <c r="Y1" s="47"/>
+      <c r="Z1" s="47"/>
+      <c r="AA1" s="47"/>
+      <c r="AB1" s="47"/>
+      <c r="AC1" s="47"/>
+      <c r="AD1" s="48"/>
+      <c r="AE1" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="AF1" s="44"/>
-      <c r="AG1" s="44"/>
-      <c r="AH1" s="48">
+      <c r="AF1" s="52"/>
+      <c r="AG1" s="52"/>
+      <c r="AH1" s="53">
         <v>42982</v>
       </c>
-      <c r="AI1" s="49"/>
-      <c r="AJ1" s="49"/>
-      <c r="AK1" s="49"/>
-      <c r="AL1" s="45" t="s">
+      <c r="AI1" s="54"/>
+      <c r="AJ1" s="54"/>
+      <c r="AK1" s="54"/>
+      <c r="AL1" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="AM1" s="45"/>
-      <c r="AN1" s="45"/>
-      <c r="AO1" s="46" t="s">
+      <c r="AM1" s="43"/>
+      <c r="AN1" s="43"/>
+      <c r="AO1" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="AP1" s="47"/>
-      <c r="AQ1" s="47"/>
-      <c r="AR1" s="47"/>
+      <c r="AP1" s="45"/>
+      <c r="AQ1" s="45"/>
+      <c r="AR1" s="45"/>
     </row>
     <row r="2" spans="1:44" ht="12" customHeight="1">
-      <c r="A2" s="25"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="36"/>
-      <c r="S2" s="40"/>
-      <c r="T2" s="41"/>
-      <c r="U2" s="42"/>
-      <c r="V2" s="37"/>
-      <c r="W2" s="38"/>
-      <c r="X2" s="38"/>
-      <c r="Y2" s="38"/>
-      <c r="Z2" s="38"/>
-      <c r="AA2" s="38"/>
-      <c r="AB2" s="38"/>
-      <c r="AC2" s="38"/>
-      <c r="AD2" s="39"/>
-      <c r="AE2" s="44"/>
-      <c r="AF2" s="44"/>
-      <c r="AG2" s="44"/>
-      <c r="AH2" s="49"/>
-      <c r="AI2" s="49"/>
-      <c r="AJ2" s="49"/>
-      <c r="AK2" s="49"/>
-      <c r="AL2" s="45"/>
-      <c r="AM2" s="45"/>
-      <c r="AN2" s="45"/>
-      <c r="AO2" s="47"/>
-      <c r="AP2" s="47"/>
-      <c r="AQ2" s="47"/>
-      <c r="AR2" s="47"/>
+      <c r="A2" s="58"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="66"/>
+      <c r="O2" s="66"/>
+      <c r="P2" s="66"/>
+      <c r="Q2" s="66"/>
+      <c r="R2" s="67"/>
+      <c r="S2" s="24"/>
+      <c r="T2" s="25"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="49"/>
+      <c r="W2" s="50"/>
+      <c r="X2" s="50"/>
+      <c r="Y2" s="50"/>
+      <c r="Z2" s="50"/>
+      <c r="AA2" s="50"/>
+      <c r="AB2" s="50"/>
+      <c r="AC2" s="50"/>
+      <c r="AD2" s="51"/>
+      <c r="AE2" s="52"/>
+      <c r="AF2" s="52"/>
+      <c r="AG2" s="52"/>
+      <c r="AH2" s="54"/>
+      <c r="AI2" s="54"/>
+      <c r="AJ2" s="54"/>
+      <c r="AK2" s="54"/>
+      <c r="AL2" s="43"/>
+      <c r="AM2" s="43"/>
+      <c r="AN2" s="43"/>
+      <c r="AO2" s="45"/>
+      <c r="AP2" s="45"/>
+      <c r="AQ2" s="45"/>
+      <c r="AR2" s="45"/>
     </row>
     <row r="3" spans="1:44" ht="12" customHeight="1">
-      <c r="A3" s="25"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35"/>
-      <c r="O3" s="35"/>
-      <c r="P3" s="35"/>
-      <c r="Q3" s="35"/>
-      <c r="R3" s="36"/>
-      <c r="S3" s="40" t="s">
+      <c r="A3" s="58"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="66"/>
+      <c r="N3" s="66"/>
+      <c r="O3" s="66"/>
+      <c r="P3" s="66"/>
+      <c r="Q3" s="66"/>
+      <c r="R3" s="67"/>
+      <c r="S3" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="T3" s="41"/>
-      <c r="U3" s="42"/>
-      <c r="V3" s="43" t="s">
+      <c r="T3" s="25"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="W3" s="32"/>
-      <c r="X3" s="32"/>
-      <c r="Y3" s="32"/>
-      <c r="Z3" s="32"/>
-      <c r="AA3" s="32"/>
-      <c r="AB3" s="32"/>
-      <c r="AC3" s="32"/>
-      <c r="AD3" s="33"/>
-      <c r="AE3" s="44" t="s">
+      <c r="W3" s="47"/>
+      <c r="X3" s="47"/>
+      <c r="Y3" s="47"/>
+      <c r="Z3" s="47"/>
+      <c r="AA3" s="47"/>
+      <c r="AB3" s="47"/>
+      <c r="AC3" s="47"/>
+      <c r="AD3" s="48"/>
+      <c r="AE3" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="AF3" s="44"/>
-      <c r="AG3" s="44"/>
-      <c r="AH3" s="48"/>
-      <c r="AI3" s="49"/>
-      <c r="AJ3" s="49"/>
-      <c r="AK3" s="49"/>
-      <c r="AL3" s="44"/>
-      <c r="AM3" s="44"/>
-      <c r="AN3" s="44"/>
-      <c r="AO3" s="49"/>
-      <c r="AP3" s="49"/>
-      <c r="AQ3" s="49"/>
-      <c r="AR3" s="49"/>
+      <c r="AF3" s="52"/>
+      <c r="AG3" s="52"/>
+      <c r="AH3" s="53"/>
+      <c r="AI3" s="54"/>
+      <c r="AJ3" s="54"/>
+      <c r="AK3" s="54"/>
+      <c r="AL3" s="52"/>
+      <c r="AM3" s="52"/>
+      <c r="AN3" s="52"/>
+      <c r="AO3" s="54"/>
+      <c r="AP3" s="54"/>
+      <c r="AQ3" s="54"/>
+      <c r="AR3" s="54"/>
     </row>
     <row r="4" spans="1:44" ht="12" customHeight="1">
-      <c r="A4" s="28"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38"/>
-      <c r="O4" s="38"/>
-      <c r="P4" s="38"/>
-      <c r="Q4" s="38"/>
-      <c r="R4" s="39"/>
-      <c r="S4" s="40"/>
-      <c r="T4" s="41"/>
-      <c r="U4" s="42"/>
-      <c r="V4" s="37"/>
-      <c r="W4" s="38"/>
-      <c r="X4" s="38"/>
-      <c r="Y4" s="38"/>
-      <c r="Z4" s="38"/>
-      <c r="AA4" s="38"/>
-      <c r="AB4" s="38"/>
-      <c r="AC4" s="38"/>
-      <c r="AD4" s="39"/>
-      <c r="AE4" s="44"/>
-      <c r="AF4" s="44"/>
-      <c r="AG4" s="44"/>
-      <c r="AH4" s="49"/>
-      <c r="AI4" s="49"/>
-      <c r="AJ4" s="49"/>
-      <c r="AK4" s="49"/>
-      <c r="AL4" s="44"/>
-      <c r="AM4" s="44"/>
-      <c r="AN4" s="44"/>
-      <c r="AO4" s="49"/>
-      <c r="AP4" s="49"/>
-      <c r="AQ4" s="49"/>
-      <c r="AR4" s="49"/>
+      <c r="A4" s="61"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="50"/>
+      <c r="N4" s="50"/>
+      <c r="O4" s="50"/>
+      <c r="P4" s="50"/>
+      <c r="Q4" s="50"/>
+      <c r="R4" s="51"/>
+      <c r="S4" s="24"/>
+      <c r="T4" s="25"/>
+      <c r="U4" s="26"/>
+      <c r="V4" s="49"/>
+      <c r="W4" s="50"/>
+      <c r="X4" s="50"/>
+      <c r="Y4" s="50"/>
+      <c r="Z4" s="50"/>
+      <c r="AA4" s="50"/>
+      <c r="AB4" s="50"/>
+      <c r="AC4" s="50"/>
+      <c r="AD4" s="51"/>
+      <c r="AE4" s="52"/>
+      <c r="AF4" s="52"/>
+      <c r="AG4" s="52"/>
+      <c r="AH4" s="54"/>
+      <c r="AI4" s="54"/>
+      <c r="AJ4" s="54"/>
+      <c r="AK4" s="54"/>
+      <c r="AL4" s="52"/>
+      <c r="AM4" s="52"/>
+      <c r="AN4" s="52"/>
+      <c r="AO4" s="54"/>
+      <c r="AP4" s="54"/>
+      <c r="AQ4" s="54"/>
+      <c r="AR4" s="54"/>
     </row>
     <row r="6" spans="1:44" ht="12" customHeight="1">
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="55" t="s">
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="56"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="56"/>
-      <c r="M6" s="56"/>
-      <c r="N6" s="57"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="29"/>
     </row>
     <row r="7" spans="1:44" ht="12" customHeight="1">
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="55" t="s">
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="56"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="56"/>
-      <c r="L7" s="56"/>
-      <c r="M7" s="56"/>
-      <c r="N7" s="57"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="29"/>
     </row>
     <row r="13" spans="1:44" ht="12" customHeight="1">
-      <c r="D13" s="70" t="s">
+      <c r="D13" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="E13" s="71"/>
-      <c r="F13" s="72"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="38"/>
       <c r="G13" s="3"/>
-      <c r="H13" s="64" t="s">
+      <c r="H13" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="I13" s="65"/>
-      <c r="J13" s="65"/>
-      <c r="K13" s="68"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="22"/>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
-      <c r="Q13" s="70" t="s">
+      <c r="Q13" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="R13" s="71"/>
-      <c r="S13" s="71"/>
-      <c r="T13" s="72"/>
+      <c r="R13" s="37"/>
+      <c r="S13" s="37"/>
+      <c r="T13" s="38"/>
       <c r="U13" s="3"/>
-      <c r="V13" s="70" t="s">
+      <c r="V13" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="W13" s="71"/>
-      <c r="X13" s="71"/>
-      <c r="Y13" s="72"/>
+      <c r="W13" s="37"/>
+      <c r="X13" s="37"/>
+      <c r="Y13" s="38"/>
       <c r="Z13" s="3"/>
-      <c r="AA13" s="70" t="s">
+      <c r="AA13" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="AB13" s="71"/>
-      <c r="AC13" s="71"/>
-      <c r="AD13" s="72"/>
+      <c r="AB13" s="37"/>
+      <c r="AC13" s="37"/>
+      <c r="AD13" s="38"/>
       <c r="AE13" s="3"/>
-      <c r="AF13" s="70" t="s">
+      <c r="AF13" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="AG13" s="71"/>
-      <c r="AH13" s="71"/>
-      <c r="AI13" s="72"/>
+      <c r="AG13" s="37"/>
+      <c r="AH13" s="37"/>
+      <c r="AI13" s="38"/>
       <c r="AJ13" s="3"/>
       <c r="AK13" s="4"/>
     </row>
     <row r="14" spans="1:44" ht="12" customHeight="1">
-      <c r="D14" s="73"/>
-      <c r="E14" s="74"/>
-      <c r="F14" s="75"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="41"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="66"/>
-      <c r="I14" s="67"/>
-      <c r="J14" s="67"/>
-      <c r="K14" s="69"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="23"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
-      <c r="Q14" s="73"/>
-      <c r="R14" s="74"/>
-      <c r="S14" s="74"/>
-      <c r="T14" s="75"/>
+      <c r="Q14" s="39"/>
+      <c r="R14" s="40"/>
+      <c r="S14" s="40"/>
+      <c r="T14" s="41"/>
       <c r="U14" s="1"/>
-      <c r="V14" s="73"/>
-      <c r="W14" s="74"/>
-      <c r="X14" s="74"/>
-      <c r="Y14" s="75"/>
+      <c r="V14" s="39"/>
+      <c r="W14" s="40"/>
+      <c r="X14" s="40"/>
+      <c r="Y14" s="41"/>
       <c r="Z14" s="1"/>
-      <c r="AA14" s="73"/>
-      <c r="AB14" s="74"/>
-      <c r="AC14" s="74"/>
-      <c r="AD14" s="75"/>
+      <c r="AA14" s="39"/>
+      <c r="AB14" s="40"/>
+      <c r="AC14" s="40"/>
+      <c r="AD14" s="41"/>
       <c r="AE14" s="1"/>
-      <c r="AF14" s="73"/>
-      <c r="AG14" s="74"/>
-      <c r="AH14" s="74"/>
-      <c r="AI14" s="75"/>
+      <c r="AF14" s="39"/>
+      <c r="AG14" s="40"/>
+      <c r="AH14" s="40"/>
+      <c r="AI14" s="41"/>
       <c r="AJ14" s="1"/>
       <c r="AK14" s="9"/>
     </row>
@@ -7830,15 +7981,15 @@
       <c r="X18" s="6"/>
       <c r="Y18" s="6"/>
       <c r="Z18" s="6"/>
-      <c r="AA18" s="50"/>
-      <c r="AB18" s="50"/>
-      <c r="AC18" s="50"/>
+      <c r="AA18" s="34"/>
+      <c r="AB18" s="34"/>
+      <c r="AC18" s="34"/>
       <c r="AD18" s="6"/>
       <c r="AE18" s="6"/>
       <c r="AF18" s="6"/>
-      <c r="AG18" s="50"/>
-      <c r="AH18" s="50"/>
-      <c r="AI18" s="50"/>
+      <c r="AG18" s="34"/>
+      <c r="AH18" s="34"/>
+      <c r="AI18" s="34"/>
       <c r="AJ18" s="6"/>
       <c r="AK18" s="7"/>
     </row>
@@ -7850,12 +8001,12 @@
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
-      <c r="K19" s="54" t="s">
+      <c r="K19" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="L19" s="54"/>
-      <c r="M19" s="54"/>
-      <c r="N19" s="54"/>
+      <c r="L19" s="42"/>
+      <c r="M19" s="42"/>
+      <c r="N19" s="42"/>
       <c r="O19" s="6"/>
       <c r="P19" s="6"/>
       <c r="Q19" s="6"/>
@@ -7888,10 +8039,10 @@
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
-      <c r="K20" s="54"/>
-      <c r="L20" s="54"/>
-      <c r="M20" s="54"/>
-      <c r="N20" s="54"/>
+      <c r="K20" s="42"/>
+      <c r="L20" s="42"/>
+      <c r="M20" s="42"/>
+      <c r="N20" s="42"/>
       <c r="O20" s="6"/>
       <c r="P20" s="6"/>
       <c r="Q20" s="6"/>
@@ -7940,9 +8091,9 @@
       <c r="X21" s="6"/>
       <c r="Y21" s="6"/>
       <c r="Z21" s="6"/>
-      <c r="AA21" s="50"/>
-      <c r="AB21" s="50"/>
-      <c r="AC21" s="50"/>
+      <c r="AA21" s="34"/>
+      <c r="AB21" s="34"/>
+      <c r="AC21" s="34"/>
       <c r="AD21" s="6"/>
       <c r="AE21" s="6"/>
       <c r="AF21" s="6"/>
@@ -9018,11 +9169,15 @@
       <c r="W51" s="3"/>
       <c r="X51" s="3"/>
       <c r="Y51" s="3"/>
-      <c r="Z51" s="3"/>
-      <c r="AA51" s="3"/>
+      <c r="Z51" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA51" s="77"/>
       <c r="AB51" s="3"/>
-      <c r="AC51" s="3"/>
-      <c r="AD51" s="3"/>
+      <c r="AC51" s="80" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD51" s="77"/>
       <c r="AE51" s="3"/>
       <c r="AF51" s="3"/>
       <c r="AG51" s="3"/>
@@ -9054,11 +9209,11 @@
       <c r="W52" s="1"/>
       <c r="X52" s="1"/>
       <c r="Y52" s="1"/>
-      <c r="Z52" s="1"/>
-      <c r="AA52" s="1"/>
+      <c r="Z52" s="78"/>
+      <c r="AA52" s="79"/>
       <c r="AB52" s="1"/>
-      <c r="AC52" s="1"/>
-      <c r="AD52" s="1"/>
+      <c r="AC52" s="78"/>
+      <c r="AD52" s="79"/>
       <c r="AE52" s="1"/>
       <c r="AF52" s="1"/>
       <c r="AG52" s="1"/>
@@ -9112,27 +9267,27 @@
       <c r="I54" s="6"/>
       <c r="J54" s="6"/>
       <c r="K54" s="6"/>
-      <c r="L54" s="51" t="s">
+      <c r="L54" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="M54" s="51"/>
-      <c r="N54" s="51"/>
-      <c r="O54" s="51"/>
-      <c r="P54" s="51"/>
-      <c r="Q54" s="51"/>
-      <c r="R54" s="51"/>
-      <c r="S54" s="51"/>
-      <c r="T54" s="51"/>
-      <c r="U54" s="51"/>
-      <c r="V54" s="51"/>
-      <c r="W54" s="51"/>
-      <c r="X54" s="51"/>
-      <c r="Y54" s="51"/>
-      <c r="Z54" s="51"/>
-      <c r="AA54" s="51"/>
-      <c r="AB54" s="51"/>
-      <c r="AC54" s="51"/>
-      <c r="AD54" s="51"/>
+      <c r="M54" s="35"/>
+      <c r="N54" s="35"/>
+      <c r="O54" s="35"/>
+      <c r="P54" s="35"/>
+      <c r="Q54" s="35"/>
+      <c r="R54" s="35"/>
+      <c r="S54" s="35"/>
+      <c r="T54" s="35"/>
+      <c r="U54" s="35"/>
+      <c r="V54" s="35"/>
+      <c r="W54" s="35"/>
+      <c r="X54" s="35"/>
+      <c r="Y54" s="35"/>
+      <c r="Z54" s="35"/>
+      <c r="AA54" s="35"/>
+      <c r="AB54" s="35"/>
+      <c r="AC54" s="35"/>
+      <c r="AD54" s="35"/>
       <c r="AE54" s="6"/>
       <c r="AF54" s="6"/>
       <c r="AG54" s="6"/>
@@ -9150,25 +9305,25 @@
       <c r="I55" s="6"/>
       <c r="J55" s="6"/>
       <c r="K55" s="6"/>
-      <c r="L55" s="51"/>
-      <c r="M55" s="51"/>
-      <c r="N55" s="51"/>
-      <c r="O55" s="51"/>
-      <c r="P55" s="51"/>
-      <c r="Q55" s="51"/>
-      <c r="R55" s="51"/>
-      <c r="S55" s="51"/>
-      <c r="T55" s="51"/>
-      <c r="U55" s="51"/>
-      <c r="V55" s="51"/>
-      <c r="W55" s="51"/>
-      <c r="X55" s="51"/>
-      <c r="Y55" s="51"/>
-      <c r="Z55" s="51"/>
-      <c r="AA55" s="51"/>
-      <c r="AB55" s="51"/>
-      <c r="AC55" s="51"/>
-      <c r="AD55" s="51"/>
+      <c r="L55" s="35"/>
+      <c r="M55" s="35"/>
+      <c r="N55" s="35"/>
+      <c r="O55" s="35"/>
+      <c r="P55" s="35"/>
+      <c r="Q55" s="35"/>
+      <c r="R55" s="35"/>
+      <c r="S55" s="35"/>
+      <c r="T55" s="35"/>
+      <c r="U55" s="35"/>
+      <c r="V55" s="35"/>
+      <c r="W55" s="35"/>
+      <c r="X55" s="35"/>
+      <c r="Y55" s="35"/>
+      <c r="Z55" s="35"/>
+      <c r="AA55" s="35"/>
+      <c r="AB55" s="35"/>
+      <c r="AC55" s="35"/>
+      <c r="AD55" s="35"/>
       <c r="AE55" s="6"/>
       <c r="AF55" s="6"/>
       <c r="AG55" s="6"/>
@@ -9250,12 +9405,21 @@
       <c r="AK57" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="29">
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:N6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:N7"/>
-    <mergeCell ref="H13:J14"/>
+  <mergeCells count="31">
+    <mergeCell ref="A1:H4"/>
+    <mergeCell ref="I1:R4"/>
+    <mergeCell ref="S1:U2"/>
+    <mergeCell ref="V1:AD2"/>
+    <mergeCell ref="AE1:AG2"/>
+    <mergeCell ref="AL1:AN2"/>
+    <mergeCell ref="AO1:AR2"/>
+    <mergeCell ref="S3:U4"/>
+    <mergeCell ref="V3:AD4"/>
+    <mergeCell ref="AE3:AG4"/>
+    <mergeCell ref="AH3:AK4"/>
+    <mergeCell ref="AL3:AN4"/>
+    <mergeCell ref="AO3:AR4"/>
+    <mergeCell ref="AH1:AK2"/>
     <mergeCell ref="AA18:AC18"/>
     <mergeCell ref="AG18:AI18"/>
     <mergeCell ref="AA21:AC21"/>
@@ -9266,20 +9430,13 @@
     <mergeCell ref="AA13:AD14"/>
     <mergeCell ref="AF13:AI14"/>
     <mergeCell ref="K19:N20"/>
-    <mergeCell ref="AL1:AN2"/>
-    <mergeCell ref="AO1:AR2"/>
-    <mergeCell ref="S3:U4"/>
-    <mergeCell ref="V3:AD4"/>
-    <mergeCell ref="AE3:AG4"/>
-    <mergeCell ref="AH3:AK4"/>
-    <mergeCell ref="AL3:AN4"/>
-    <mergeCell ref="AO3:AR4"/>
-    <mergeCell ref="AH1:AK2"/>
-    <mergeCell ref="A1:H4"/>
-    <mergeCell ref="I1:R4"/>
-    <mergeCell ref="S1:U2"/>
-    <mergeCell ref="V1:AD2"/>
-    <mergeCell ref="AE1:AG2"/>
+    <mergeCell ref="Z51:AA52"/>
+    <mergeCell ref="AC51:AD52"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:N6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:N7"/>
+    <mergeCell ref="H13:J14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9304,248 +9461,248 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:44" ht="12" customHeight="1">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="31" t="s">
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="40" t="s">
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="47"/>
+      <c r="R1" s="48"/>
+      <c r="S1" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="T1" s="41"/>
-      <c r="U1" s="42"/>
-      <c r="V1" s="43" t="s">
+      <c r="T1" s="25"/>
+      <c r="U1" s="26"/>
+      <c r="V1" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="W1" s="32"/>
-      <c r="X1" s="32"/>
-      <c r="Y1" s="32"/>
-      <c r="Z1" s="32"/>
-      <c r="AA1" s="32"/>
-      <c r="AB1" s="32"/>
-      <c r="AC1" s="32"/>
-      <c r="AD1" s="33"/>
-      <c r="AE1" s="44" t="s">
+      <c r="W1" s="47"/>
+      <c r="X1" s="47"/>
+      <c r="Y1" s="47"/>
+      <c r="Z1" s="47"/>
+      <c r="AA1" s="47"/>
+      <c r="AB1" s="47"/>
+      <c r="AC1" s="47"/>
+      <c r="AD1" s="48"/>
+      <c r="AE1" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="AF1" s="44"/>
-      <c r="AG1" s="44"/>
-      <c r="AH1" s="48">
+      <c r="AF1" s="52"/>
+      <c r="AG1" s="52"/>
+      <c r="AH1" s="53">
         <v>42982</v>
       </c>
-      <c r="AI1" s="49"/>
-      <c r="AJ1" s="49"/>
-      <c r="AK1" s="49"/>
-      <c r="AL1" s="45" t="s">
+      <c r="AI1" s="54"/>
+      <c r="AJ1" s="54"/>
+      <c r="AK1" s="54"/>
+      <c r="AL1" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="AM1" s="45"/>
-      <c r="AN1" s="45"/>
-      <c r="AO1" s="46" t="s">
+      <c r="AM1" s="43"/>
+      <c r="AN1" s="43"/>
+      <c r="AO1" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="AP1" s="47"/>
-      <c r="AQ1" s="47"/>
-      <c r="AR1" s="47"/>
+      <c r="AP1" s="45"/>
+      <c r="AQ1" s="45"/>
+      <c r="AR1" s="45"/>
     </row>
     <row r="2" spans="1:44" ht="12" customHeight="1">
-      <c r="A2" s="25"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="36"/>
-      <c r="S2" s="40"/>
-      <c r="T2" s="41"/>
-      <c r="U2" s="42"/>
-      <c r="V2" s="37"/>
-      <c r="W2" s="38"/>
-      <c r="X2" s="38"/>
-      <c r="Y2" s="38"/>
-      <c r="Z2" s="38"/>
-      <c r="AA2" s="38"/>
-      <c r="AB2" s="38"/>
-      <c r="AC2" s="38"/>
-      <c r="AD2" s="39"/>
-      <c r="AE2" s="44"/>
-      <c r="AF2" s="44"/>
-      <c r="AG2" s="44"/>
-      <c r="AH2" s="49"/>
-      <c r="AI2" s="49"/>
-      <c r="AJ2" s="49"/>
-      <c r="AK2" s="49"/>
-      <c r="AL2" s="45"/>
-      <c r="AM2" s="45"/>
-      <c r="AN2" s="45"/>
-      <c r="AO2" s="47"/>
-      <c r="AP2" s="47"/>
-      <c r="AQ2" s="47"/>
-      <c r="AR2" s="47"/>
+      <c r="A2" s="58"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="66"/>
+      <c r="O2" s="66"/>
+      <c r="P2" s="66"/>
+      <c r="Q2" s="66"/>
+      <c r="R2" s="67"/>
+      <c r="S2" s="24"/>
+      <c r="T2" s="25"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="49"/>
+      <c r="W2" s="50"/>
+      <c r="X2" s="50"/>
+      <c r="Y2" s="50"/>
+      <c r="Z2" s="50"/>
+      <c r="AA2" s="50"/>
+      <c r="AB2" s="50"/>
+      <c r="AC2" s="50"/>
+      <c r="AD2" s="51"/>
+      <c r="AE2" s="52"/>
+      <c r="AF2" s="52"/>
+      <c r="AG2" s="52"/>
+      <c r="AH2" s="54"/>
+      <c r="AI2" s="54"/>
+      <c r="AJ2" s="54"/>
+      <c r="AK2" s="54"/>
+      <c r="AL2" s="43"/>
+      <c r="AM2" s="43"/>
+      <c r="AN2" s="43"/>
+      <c r="AO2" s="45"/>
+      <c r="AP2" s="45"/>
+      <c r="AQ2" s="45"/>
+      <c r="AR2" s="45"/>
     </row>
     <row r="3" spans="1:44" ht="12" customHeight="1">
-      <c r="A3" s="25"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35"/>
-      <c r="O3" s="35"/>
-      <c r="P3" s="35"/>
-      <c r="Q3" s="35"/>
-      <c r="R3" s="36"/>
-      <c r="S3" s="40" t="s">
+      <c r="A3" s="58"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="66"/>
+      <c r="N3" s="66"/>
+      <c r="O3" s="66"/>
+      <c r="P3" s="66"/>
+      <c r="Q3" s="66"/>
+      <c r="R3" s="67"/>
+      <c r="S3" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="T3" s="41"/>
-      <c r="U3" s="42"/>
-      <c r="V3" s="43" t="s">
+      <c r="T3" s="25"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="W3" s="32"/>
-      <c r="X3" s="32"/>
-      <c r="Y3" s="32"/>
-      <c r="Z3" s="32"/>
-      <c r="AA3" s="32"/>
-      <c r="AB3" s="32"/>
-      <c r="AC3" s="32"/>
-      <c r="AD3" s="33"/>
-      <c r="AE3" s="44" t="s">
+      <c r="W3" s="47"/>
+      <c r="X3" s="47"/>
+      <c r="Y3" s="47"/>
+      <c r="Z3" s="47"/>
+      <c r="AA3" s="47"/>
+      <c r="AB3" s="47"/>
+      <c r="AC3" s="47"/>
+      <c r="AD3" s="48"/>
+      <c r="AE3" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="AF3" s="44"/>
-      <c r="AG3" s="44"/>
-      <c r="AH3" s="48"/>
-      <c r="AI3" s="49"/>
-      <c r="AJ3" s="49"/>
-      <c r="AK3" s="49"/>
-      <c r="AL3" s="44"/>
-      <c r="AM3" s="44"/>
-      <c r="AN3" s="44"/>
-      <c r="AO3" s="49"/>
-      <c r="AP3" s="49"/>
-      <c r="AQ3" s="49"/>
-      <c r="AR3" s="49"/>
+      <c r="AF3" s="52"/>
+      <c r="AG3" s="52"/>
+      <c r="AH3" s="53"/>
+      <c r="AI3" s="54"/>
+      <c r="AJ3" s="54"/>
+      <c r="AK3" s="54"/>
+      <c r="AL3" s="52"/>
+      <c r="AM3" s="52"/>
+      <c r="AN3" s="52"/>
+      <c r="AO3" s="54"/>
+      <c r="AP3" s="54"/>
+      <c r="AQ3" s="54"/>
+      <c r="AR3" s="54"/>
     </row>
     <row r="4" spans="1:44" ht="12" customHeight="1">
-      <c r="A4" s="28"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38"/>
-      <c r="O4" s="38"/>
-      <c r="P4" s="38"/>
-      <c r="Q4" s="38"/>
-      <c r="R4" s="39"/>
-      <c r="S4" s="40"/>
-      <c r="T4" s="41"/>
-      <c r="U4" s="42"/>
-      <c r="V4" s="37"/>
-      <c r="W4" s="38"/>
-      <c r="X4" s="38"/>
-      <c r="Y4" s="38"/>
-      <c r="Z4" s="38"/>
-      <c r="AA4" s="38"/>
-      <c r="AB4" s="38"/>
-      <c r="AC4" s="38"/>
-      <c r="AD4" s="39"/>
-      <c r="AE4" s="44"/>
-      <c r="AF4" s="44"/>
-      <c r="AG4" s="44"/>
-      <c r="AH4" s="49"/>
-      <c r="AI4" s="49"/>
-      <c r="AJ4" s="49"/>
-      <c r="AK4" s="49"/>
-      <c r="AL4" s="44"/>
-      <c r="AM4" s="44"/>
-      <c r="AN4" s="44"/>
-      <c r="AO4" s="49"/>
-      <c r="AP4" s="49"/>
-      <c r="AQ4" s="49"/>
-      <c r="AR4" s="49"/>
+      <c r="A4" s="61"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="50"/>
+      <c r="N4" s="50"/>
+      <c r="O4" s="50"/>
+      <c r="P4" s="50"/>
+      <c r="Q4" s="50"/>
+      <c r="R4" s="51"/>
+      <c r="S4" s="24"/>
+      <c r="T4" s="25"/>
+      <c r="U4" s="26"/>
+      <c r="V4" s="49"/>
+      <c r="W4" s="50"/>
+      <c r="X4" s="50"/>
+      <c r="Y4" s="50"/>
+      <c r="Z4" s="50"/>
+      <c r="AA4" s="50"/>
+      <c r="AB4" s="50"/>
+      <c r="AC4" s="50"/>
+      <c r="AD4" s="51"/>
+      <c r="AE4" s="52"/>
+      <c r="AF4" s="52"/>
+      <c r="AG4" s="52"/>
+      <c r="AH4" s="54"/>
+      <c r="AI4" s="54"/>
+      <c r="AJ4" s="54"/>
+      <c r="AK4" s="54"/>
+      <c r="AL4" s="52"/>
+      <c r="AM4" s="52"/>
+      <c r="AN4" s="52"/>
+      <c r="AO4" s="54"/>
+      <c r="AP4" s="54"/>
+      <c r="AQ4" s="54"/>
+      <c r="AR4" s="54"/>
     </row>
     <row r="6" spans="1:44" ht="12" customHeight="1">
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="55" t="s">
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="56"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="56"/>
-      <c r="M6" s="56"/>
-      <c r="N6" s="57"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="29"/>
     </row>
     <row r="7" spans="1:44" ht="12" customHeight="1">
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="55" t="s">
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="56"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="56"/>
-      <c r="L7" s="56"/>
-      <c r="M7" s="56"/>
-      <c r="N7" s="57"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="29"/>
     </row>
     <row r="11" spans="1:44" ht="12" customHeight="1">
       <c r="D11" s="2"/>
@@ -9693,43 +9850,43 @@
     </row>
     <row r="15" spans="1:44" ht="12" customHeight="1">
       <c r="D15" s="5"/>
-      <c r="E15" s="59" t="s">
+      <c r="E15" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="59"/>
+      <c r="F15" s="73"/>
+      <c r="G15" s="73"/>
+      <c r="H15" s="73"/>
+      <c r="I15" s="73"/>
+      <c r="J15" s="73"/>
+      <c r="K15" s="73"/>
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
       <c r="O15" s="6"/>
-      <c r="P15" s="59" t="s">
+      <c r="P15" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="Q15" s="59"/>
-      <c r="R15" s="59"/>
-      <c r="S15" s="59"/>
-      <c r="T15" s="59"/>
-      <c r="U15" s="59"/>
-      <c r="V15" s="59"/>
-      <c r="W15" s="59"/>
+      <c r="Q15" s="73"/>
+      <c r="R15" s="73"/>
+      <c r="S15" s="73"/>
+      <c r="T15" s="73"/>
+      <c r="U15" s="73"/>
+      <c r="V15" s="73"/>
+      <c r="W15" s="73"/>
       <c r="X15" s="6"/>
       <c r="Y15" s="6"/>
       <c r="Z15" s="6"/>
       <c r="AA15" s="6"/>
       <c r="AB15" s="6"/>
-      <c r="AC15" s="58" t="s">
+      <c r="AC15" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="AD15" s="58"/>
-      <c r="AE15" s="58"/>
-      <c r="AF15" s="58"/>
-      <c r="AG15" s="58"/>
-      <c r="AH15" s="58"/>
-      <c r="AI15" s="58"/>
+      <c r="AD15" s="72"/>
+      <c r="AE15" s="72"/>
+      <c r="AF15" s="72"/>
+      <c r="AG15" s="72"/>
+      <c r="AH15" s="72"/>
+      <c r="AI15" s="72"/>
       <c r="AJ15" s="6"/>
       <c r="AK15" s="7"/>
     </row>
@@ -9771,16 +9928,16 @@
     </row>
     <row r="17" spans="4:37" ht="12" customHeight="1">
       <c r="D17" s="5"/>
-      <c r="E17" s="52" t="s">
+      <c r="E17" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="F17" s="53"/>
-      <c r="G17" s="53"/>
-      <c r="H17" s="53"/>
-      <c r="I17" s="53"/>
-      <c r="J17" s="53"/>
-      <c r="K17" s="53"/>
-      <c r="L17" s="53"/>
+      <c r="F17" s="71"/>
+      <c r="G17" s="71"/>
+      <c r="H17" s="71"/>
+      <c r="I17" s="71"/>
+      <c r="J17" s="71"/>
+      <c r="K17" s="71"/>
+      <c r="L17" s="71"/>
       <c r="M17" s="4"/>
       <c r="N17" s="7"/>
       <c r="O17" s="5"/>
@@ -9809,14 +9966,14 @@
     </row>
     <row r="18" spans="4:37" ht="12" customHeight="1">
       <c r="D18" s="5"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="51"/>
-      <c r="J18" s="51"/>
-      <c r="K18" s="51"/>
-      <c r="L18" s="51"/>
+      <c r="E18" s="69"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="35"/>
       <c r="M18" s="7"/>
       <c r="N18" s="7"/>
       <c r="O18" s="5"/>
@@ -9881,18 +10038,18 @@
     </row>
     <row r="20" spans="4:37" ht="12" customHeight="1">
       <c r="D20" s="5"/>
-      <c r="E20" s="61" t="s">
+      <c r="E20" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="F20" s="51"/>
-      <c r="G20" s="51"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
-      <c r="J20" s="51" t="s">
+      <c r="J20" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="K20" s="51"/>
-      <c r="L20" s="51"/>
+      <c r="K20" s="35"/>
+      <c r="L20" s="35"/>
       <c r="M20" s="7"/>
       <c r="N20" s="7"/>
       <c r="O20" s="5"/>
@@ -9921,14 +10078,14 @@
     </row>
     <row r="21" spans="4:37" ht="12" customHeight="1">
       <c r="D21" s="5"/>
-      <c r="E21" s="61"/>
-      <c r="F21" s="51"/>
-      <c r="G21" s="51"/>
+      <c r="E21" s="69"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
-      <c r="J21" s="51"/>
-      <c r="K21" s="51"/>
-      <c r="L21" s="51"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="35"/>
+      <c r="L21" s="35"/>
       <c r="M21" s="7"/>
       <c r="N21" s="7"/>
       <c r="O21" s="5"/>
@@ -9957,14 +10114,14 @@
     </row>
     <row r="22" spans="4:37" ht="12" customHeight="1">
       <c r="D22" s="5"/>
-      <c r="E22" s="61"/>
-      <c r="F22" s="51"/>
-      <c r="G22" s="51"/>
+      <c r="E22" s="69"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
-      <c r="J22" s="51"/>
-      <c r="K22" s="51"/>
-      <c r="L22" s="51"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="35"/>
       <c r="M22" s="7"/>
       <c r="N22" s="7"/>
       <c r="O22" s="5"/>
@@ -9993,14 +10150,14 @@
     </row>
     <row r="23" spans="4:37" ht="12" customHeight="1">
       <c r="D23" s="5"/>
-      <c r="E23" s="61"/>
-      <c r="F23" s="51"/>
-      <c r="G23" s="51"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
-      <c r="J23" s="51"/>
-      <c r="K23" s="51"/>
-      <c r="L23" s="51"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="35"/>
       <c r="M23" s="7"/>
       <c r="N23" s="7"/>
       <c r="O23" s="5"/>
@@ -10029,14 +10186,14 @@
     </row>
     <row r="24" spans="4:37" ht="12" customHeight="1">
       <c r="D24" s="5"/>
-      <c r="E24" s="61"/>
-      <c r="F24" s="51"/>
-      <c r="G24" s="51"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="35"/>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
-      <c r="J24" s="51"/>
-      <c r="K24" s="51"/>
-      <c r="L24" s="51"/>
+      <c r="J24" s="35"/>
+      <c r="K24" s="35"/>
+      <c r="L24" s="35"/>
       <c r="M24" s="7"/>
       <c r="N24" s="7"/>
       <c r="O24" s="5"/>
@@ -10065,14 +10222,14 @@
     </row>
     <row r="25" spans="4:37" ht="12" customHeight="1">
       <c r="D25" s="5"/>
-      <c r="E25" s="61"/>
-      <c r="F25" s="51"/>
-      <c r="G25" s="51"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="35"/>
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
-      <c r="J25" s="51"/>
-      <c r="K25" s="51"/>
-      <c r="L25" s="51"/>
+      <c r="J25" s="35"/>
+      <c r="K25" s="35"/>
+      <c r="L25" s="35"/>
       <c r="M25" s="7"/>
       <c r="N25" s="7"/>
       <c r="O25" s="5"/>
@@ -10101,14 +10258,14 @@
     </row>
     <row r="26" spans="4:37" ht="12" customHeight="1">
       <c r="D26" s="5"/>
-      <c r="E26" s="61"/>
-      <c r="F26" s="51"/>
-      <c r="G26" s="51"/>
+      <c r="E26" s="69"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
-      <c r="J26" s="51"/>
-      <c r="K26" s="51"/>
-      <c r="L26" s="51"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="35"/>
       <c r="M26" s="7"/>
       <c r="N26" s="7"/>
       <c r="O26" s="5"/>
@@ -10137,18 +10294,18 @@
     </row>
     <row r="27" spans="4:37" ht="12" customHeight="1">
       <c r="D27" s="5"/>
-      <c r="E27" s="60" t="s">
+      <c r="E27" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="F27" s="50"/>
+      <c r="F27" s="34"/>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
-      <c r="J27" s="50" t="s">
+      <c r="J27" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="K27" s="50"/>
-      <c r="L27" s="50"/>
+      <c r="K27" s="34"/>
+      <c r="L27" s="34"/>
       <c r="M27" s="7"/>
       <c r="N27" s="7"/>
       <c r="O27" s="5"/>
@@ -10393,18 +10550,11 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E20:G26"/>
-    <mergeCell ref="J20:L26"/>
-    <mergeCell ref="E17:L18"/>
-    <mergeCell ref="AC15:AI15"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:N6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:N7"/>
-    <mergeCell ref="P15:W15"/>
-    <mergeCell ref="E15:K15"/>
+    <mergeCell ref="A1:H4"/>
+    <mergeCell ref="I1:R4"/>
+    <mergeCell ref="S1:U2"/>
+    <mergeCell ref="V1:AD2"/>
+    <mergeCell ref="AE1:AG2"/>
     <mergeCell ref="AL1:AN2"/>
     <mergeCell ref="AO1:AR2"/>
     <mergeCell ref="S3:U4"/>
@@ -10414,11 +10564,18 @@
     <mergeCell ref="AL3:AN4"/>
     <mergeCell ref="AO3:AR4"/>
     <mergeCell ref="AH1:AK2"/>
-    <mergeCell ref="A1:H4"/>
-    <mergeCell ref="I1:R4"/>
-    <mergeCell ref="S1:U2"/>
-    <mergeCell ref="V1:AD2"/>
-    <mergeCell ref="AE1:AG2"/>
+    <mergeCell ref="AC15:AI15"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:N6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:N7"/>
+    <mergeCell ref="P15:W15"/>
+    <mergeCell ref="E15:K15"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E20:G26"/>
+    <mergeCell ref="J20:L26"/>
+    <mergeCell ref="E17:L18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -10442,330 +10599,330 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:44" ht="12" customHeight="1">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="31" t="s">
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="40" t="s">
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="47"/>
+      <c r="R1" s="48"/>
+      <c r="S1" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="T1" s="41"/>
-      <c r="U1" s="42"/>
-      <c r="V1" s="43" t="s">
+      <c r="T1" s="25"/>
+      <c r="U1" s="26"/>
+      <c r="V1" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="W1" s="32"/>
-      <c r="X1" s="32"/>
-      <c r="Y1" s="32"/>
-      <c r="Z1" s="32"/>
-      <c r="AA1" s="32"/>
-      <c r="AB1" s="32"/>
-      <c r="AC1" s="32"/>
-      <c r="AD1" s="33"/>
-      <c r="AE1" s="44" t="s">
+      <c r="W1" s="47"/>
+      <c r="X1" s="47"/>
+      <c r="Y1" s="47"/>
+      <c r="Z1" s="47"/>
+      <c r="AA1" s="47"/>
+      <c r="AB1" s="47"/>
+      <c r="AC1" s="47"/>
+      <c r="AD1" s="48"/>
+      <c r="AE1" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="AF1" s="44"/>
-      <c r="AG1" s="44"/>
-      <c r="AH1" s="48" t="s">
+      <c r="AF1" s="52"/>
+      <c r="AG1" s="52"/>
+      <c r="AH1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="AI1" s="49"/>
-      <c r="AJ1" s="49"/>
-      <c r="AK1" s="49"/>
-      <c r="AL1" s="45" t="s">
+      <c r="AI1" s="54"/>
+      <c r="AJ1" s="54"/>
+      <c r="AK1" s="54"/>
+      <c r="AL1" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="AM1" s="45"/>
-      <c r="AN1" s="45"/>
-      <c r="AO1" s="46" t="s">
+      <c r="AM1" s="43"/>
+      <c r="AN1" s="43"/>
+      <c r="AO1" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="AP1" s="47"/>
-      <c r="AQ1" s="47"/>
-      <c r="AR1" s="47"/>
+      <c r="AP1" s="45"/>
+      <c r="AQ1" s="45"/>
+      <c r="AR1" s="45"/>
     </row>
     <row r="2" spans="1:44" ht="12" customHeight="1">
-      <c r="A2" s="25"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="36"/>
-      <c r="S2" s="40"/>
-      <c r="T2" s="41"/>
-      <c r="U2" s="42"/>
-      <c r="V2" s="37"/>
-      <c r="W2" s="38"/>
-      <c r="X2" s="38"/>
-      <c r="Y2" s="38"/>
-      <c r="Z2" s="38"/>
-      <c r="AA2" s="38"/>
-      <c r="AB2" s="38"/>
-      <c r="AC2" s="38"/>
-      <c r="AD2" s="39"/>
-      <c r="AE2" s="44"/>
-      <c r="AF2" s="44"/>
-      <c r="AG2" s="44"/>
-      <c r="AH2" s="49"/>
-      <c r="AI2" s="49"/>
-      <c r="AJ2" s="49"/>
-      <c r="AK2" s="49"/>
-      <c r="AL2" s="45"/>
-      <c r="AM2" s="45"/>
-      <c r="AN2" s="45"/>
-      <c r="AO2" s="47"/>
-      <c r="AP2" s="47"/>
-      <c r="AQ2" s="47"/>
-      <c r="AR2" s="47"/>
+      <c r="A2" s="58"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="66"/>
+      <c r="O2" s="66"/>
+      <c r="P2" s="66"/>
+      <c r="Q2" s="66"/>
+      <c r="R2" s="67"/>
+      <c r="S2" s="24"/>
+      <c r="T2" s="25"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="49"/>
+      <c r="W2" s="50"/>
+      <c r="X2" s="50"/>
+      <c r="Y2" s="50"/>
+      <c r="Z2" s="50"/>
+      <c r="AA2" s="50"/>
+      <c r="AB2" s="50"/>
+      <c r="AC2" s="50"/>
+      <c r="AD2" s="51"/>
+      <c r="AE2" s="52"/>
+      <c r="AF2" s="52"/>
+      <c r="AG2" s="52"/>
+      <c r="AH2" s="54"/>
+      <c r="AI2" s="54"/>
+      <c r="AJ2" s="54"/>
+      <c r="AK2" s="54"/>
+      <c r="AL2" s="43"/>
+      <c r="AM2" s="43"/>
+      <c r="AN2" s="43"/>
+      <c r="AO2" s="45"/>
+      <c r="AP2" s="45"/>
+      <c r="AQ2" s="45"/>
+      <c r="AR2" s="45"/>
     </row>
     <row r="3" spans="1:44" ht="12" customHeight="1">
-      <c r="A3" s="25"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35"/>
-      <c r="O3" s="35"/>
-      <c r="P3" s="35"/>
-      <c r="Q3" s="35"/>
-      <c r="R3" s="36"/>
-      <c r="S3" s="40" t="s">
+      <c r="A3" s="58"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="66"/>
+      <c r="N3" s="66"/>
+      <c r="O3" s="66"/>
+      <c r="P3" s="66"/>
+      <c r="Q3" s="66"/>
+      <c r="R3" s="67"/>
+      <c r="S3" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="T3" s="41"/>
-      <c r="U3" s="42"/>
-      <c r="V3" s="43" t="s">
+      <c r="T3" s="25"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="W3" s="32"/>
-      <c r="X3" s="32"/>
-      <c r="Y3" s="32"/>
-      <c r="Z3" s="32"/>
-      <c r="AA3" s="32"/>
-      <c r="AB3" s="32"/>
-      <c r="AC3" s="32"/>
-      <c r="AD3" s="33"/>
-      <c r="AE3" s="44" t="s">
+      <c r="W3" s="47"/>
+      <c r="X3" s="47"/>
+      <c r="Y3" s="47"/>
+      <c r="Z3" s="47"/>
+      <c r="AA3" s="47"/>
+      <c r="AB3" s="47"/>
+      <c r="AC3" s="47"/>
+      <c r="AD3" s="48"/>
+      <c r="AE3" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="AF3" s="44"/>
-      <c r="AG3" s="44"/>
-      <c r="AH3" s="48"/>
-      <c r="AI3" s="49"/>
-      <c r="AJ3" s="49"/>
-      <c r="AK3" s="49"/>
-      <c r="AL3" s="44"/>
-      <c r="AM3" s="44"/>
-      <c r="AN3" s="44"/>
-      <c r="AO3" s="49"/>
-      <c r="AP3" s="49"/>
-      <c r="AQ3" s="49"/>
-      <c r="AR3" s="49"/>
+      <c r="AF3" s="52"/>
+      <c r="AG3" s="52"/>
+      <c r="AH3" s="53"/>
+      <c r="AI3" s="54"/>
+      <c r="AJ3" s="54"/>
+      <c r="AK3" s="54"/>
+      <c r="AL3" s="52"/>
+      <c r="AM3" s="52"/>
+      <c r="AN3" s="52"/>
+      <c r="AO3" s="54"/>
+      <c r="AP3" s="54"/>
+      <c r="AQ3" s="54"/>
+      <c r="AR3" s="54"/>
     </row>
     <row r="4" spans="1:44" ht="12" customHeight="1">
-      <c r="A4" s="28"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38"/>
-      <c r="O4" s="38"/>
-      <c r="P4" s="38"/>
-      <c r="Q4" s="38"/>
-      <c r="R4" s="39"/>
-      <c r="S4" s="40"/>
-      <c r="T4" s="41"/>
-      <c r="U4" s="42"/>
-      <c r="V4" s="37"/>
-      <c r="W4" s="38"/>
-      <c r="X4" s="38"/>
-      <c r="Y4" s="38"/>
-      <c r="Z4" s="38"/>
-      <c r="AA4" s="38"/>
-      <c r="AB4" s="38"/>
-      <c r="AC4" s="38"/>
-      <c r="AD4" s="39"/>
-      <c r="AE4" s="44"/>
-      <c r="AF4" s="44"/>
-      <c r="AG4" s="44"/>
-      <c r="AH4" s="49"/>
-      <c r="AI4" s="49"/>
-      <c r="AJ4" s="49"/>
-      <c r="AK4" s="49"/>
-      <c r="AL4" s="44"/>
-      <c r="AM4" s="44"/>
-      <c r="AN4" s="44"/>
-      <c r="AO4" s="49"/>
-      <c r="AP4" s="49"/>
-      <c r="AQ4" s="49"/>
-      <c r="AR4" s="49"/>
+      <c r="A4" s="61"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="50"/>
+      <c r="N4" s="50"/>
+      <c r="O4" s="50"/>
+      <c r="P4" s="50"/>
+      <c r="Q4" s="50"/>
+      <c r="R4" s="51"/>
+      <c r="S4" s="24"/>
+      <c r="T4" s="25"/>
+      <c r="U4" s="26"/>
+      <c r="V4" s="49"/>
+      <c r="W4" s="50"/>
+      <c r="X4" s="50"/>
+      <c r="Y4" s="50"/>
+      <c r="Z4" s="50"/>
+      <c r="AA4" s="50"/>
+      <c r="AB4" s="50"/>
+      <c r="AC4" s="50"/>
+      <c r="AD4" s="51"/>
+      <c r="AE4" s="52"/>
+      <c r="AF4" s="52"/>
+      <c r="AG4" s="52"/>
+      <c r="AH4" s="54"/>
+      <c r="AI4" s="54"/>
+      <c r="AJ4" s="54"/>
+      <c r="AK4" s="54"/>
+      <c r="AL4" s="52"/>
+      <c r="AM4" s="52"/>
+      <c r="AN4" s="52"/>
+      <c r="AO4" s="54"/>
+      <c r="AP4" s="54"/>
+      <c r="AQ4" s="54"/>
+      <c r="AR4" s="54"/>
     </row>
     <row r="6" spans="1:44" ht="12" customHeight="1">
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="55" t="s">
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="56"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="56"/>
-      <c r="M6" s="56"/>
-      <c r="N6" s="57"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="29"/>
     </row>
     <row r="7" spans="1:44" ht="12" customHeight="1">
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="55" t="s">
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="56"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="56"/>
-      <c r="L7" s="56"/>
-      <c r="M7" s="56"/>
-      <c r="N7" s="57"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="29"/>
     </row>
     <row r="12" spans="1:44" ht="12" customHeight="1">
-      <c r="D12" s="70" t="s">
+      <c r="D12" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="71"/>
-      <c r="F12" s="72"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="38"/>
       <c r="G12" s="3"/>
-      <c r="H12" s="64" t="s">
+      <c r="H12" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="I12" s="65"/>
-      <c r="J12" s="65"/>
-      <c r="K12" s="68"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="22"/>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
-      <c r="Q12" s="70" t="s">
+      <c r="Q12" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="R12" s="71"/>
-      <c r="S12" s="71"/>
-      <c r="T12" s="72"/>
+      <c r="R12" s="37"/>
+      <c r="S12" s="37"/>
+      <c r="T12" s="38"/>
       <c r="U12" s="3"/>
-      <c r="V12" s="70" t="s">
+      <c r="V12" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="W12" s="71"/>
-      <c r="X12" s="71"/>
-      <c r="Y12" s="72"/>
+      <c r="W12" s="37"/>
+      <c r="X12" s="37"/>
+      <c r="Y12" s="38"/>
       <c r="Z12" s="3"/>
-      <c r="AA12" s="70" t="s">
+      <c r="AA12" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="AB12" s="71"/>
-      <c r="AC12" s="71"/>
-      <c r="AD12" s="72"/>
+      <c r="AB12" s="37"/>
+      <c r="AC12" s="37"/>
+      <c r="AD12" s="38"/>
       <c r="AE12" s="3"/>
-      <c r="AF12" s="70" t="s">
+      <c r="AF12" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="AG12" s="71"/>
-      <c r="AH12" s="71"/>
-      <c r="AI12" s="72"/>
+      <c r="AG12" s="37"/>
+      <c r="AH12" s="37"/>
+      <c r="AI12" s="38"/>
       <c r="AJ12" s="3"/>
       <c r="AK12" s="4"/>
     </row>
     <row r="13" spans="1:44" ht="12" customHeight="1">
-      <c r="D13" s="73"/>
-      <c r="E13" s="74"/>
-      <c r="F13" s="75"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="41"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="66"/>
-      <c r="I13" s="67"/>
-      <c r="J13" s="67"/>
-      <c r="K13" s="69"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="23"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
-      <c r="Q13" s="73"/>
-      <c r="R13" s="74"/>
-      <c r="S13" s="74"/>
-      <c r="T13" s="75"/>
+      <c r="Q13" s="39"/>
+      <c r="R13" s="40"/>
+      <c r="S13" s="40"/>
+      <c r="T13" s="41"/>
       <c r="U13" s="1"/>
-      <c r="V13" s="73"/>
-      <c r="W13" s="74"/>
-      <c r="X13" s="74"/>
-      <c r="Y13" s="75"/>
+      <c r="V13" s="39"/>
+      <c r="W13" s="40"/>
+      <c r="X13" s="40"/>
+      <c r="Y13" s="41"/>
       <c r="Z13" s="1"/>
-      <c r="AA13" s="73"/>
-      <c r="AB13" s="74"/>
-      <c r="AC13" s="74"/>
-      <c r="AD13" s="75"/>
+      <c r="AA13" s="39"/>
+      <c r="AB13" s="40"/>
+      <c r="AC13" s="40"/>
+      <c r="AD13" s="41"/>
       <c r="AE13" s="1"/>
-      <c r="AF13" s="73"/>
-      <c r="AG13" s="74"/>
-      <c r="AH13" s="74"/>
-      <c r="AI13" s="75"/>
+      <c r="AF13" s="39"/>
+      <c r="AG13" s="40"/>
+      <c r="AH13" s="40"/>
+      <c r="AI13" s="41"/>
       <c r="AJ13" s="1"/>
       <c r="AK13" s="9"/>
     </row>
@@ -10901,15 +11058,15 @@
       <c r="X17" s="6"/>
       <c r="Y17" s="6"/>
       <c r="Z17" s="6"/>
-      <c r="AA17" s="50"/>
-      <c r="AB17" s="50"/>
-      <c r="AC17" s="50"/>
+      <c r="AA17" s="34"/>
+      <c r="AB17" s="34"/>
+      <c r="AC17" s="34"/>
       <c r="AD17" s="6"/>
       <c r="AE17" s="6"/>
       <c r="AF17" s="6"/>
-      <c r="AG17" s="50"/>
-      <c r="AH17" s="50"/>
-      <c r="AI17" s="50"/>
+      <c r="AG17" s="34"/>
+      <c r="AH17" s="34"/>
+      <c r="AI17" s="34"/>
       <c r="AJ17" s="6"/>
       <c r="AK17" s="7"/>
     </row>
@@ -10921,12 +11078,12 @@
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
-      <c r="K18" s="54" t="s">
+      <c r="K18" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="L18" s="54"/>
-      <c r="M18" s="54"/>
-      <c r="N18" s="54"/>
+      <c r="L18" s="42"/>
+      <c r="M18" s="42"/>
+      <c r="N18" s="42"/>
       <c r="O18" s="6"/>
       <c r="P18" s="6"/>
       <c r="Q18" s="6"/>
@@ -10959,10 +11116,10 @@
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
-      <c r="K19" s="54"/>
-      <c r="L19" s="54"/>
-      <c r="M19" s="54"/>
-      <c r="N19" s="54"/>
+      <c r="K19" s="42"/>
+      <c r="L19" s="42"/>
+      <c r="M19" s="42"/>
+      <c r="N19" s="42"/>
       <c r="O19" s="6"/>
       <c r="P19" s="6"/>
       <c r="Q19" s="6"/>
@@ -11011,9 +11168,9 @@
       <c r="X20" s="6"/>
       <c r="Y20" s="6"/>
       <c r="Z20" s="6"/>
-      <c r="AA20" s="50"/>
-      <c r="AB20" s="50"/>
-      <c r="AC20" s="50"/>
+      <c r="AA20" s="34"/>
+      <c r="AB20" s="34"/>
+      <c r="AC20" s="34"/>
       <c r="AD20" s="6"/>
       <c r="AE20" s="6"/>
       <c r="AF20" s="6"/>
@@ -12788,23 +12945,23 @@
       <c r="AK50" s="14"/>
       <c r="AP50" s="12"/>
       <c r="AQ50" s="12"/>
-      <c r="AR50" s="62" t="s">
+      <c r="AR50" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="AS50" s="62"/>
-      <c r="AT50" s="62"/>
-      <c r="AU50" s="62"/>
-      <c r="AV50" s="62"/>
-      <c r="AW50" s="62"/>
-      <c r="AX50" s="62"/>
-      <c r="AY50" s="62"/>
-      <c r="AZ50" s="62"/>
-      <c r="BA50" s="62"/>
-      <c r="BB50" s="62"/>
-      <c r="BC50" s="62"/>
-      <c r="BD50" s="62"/>
-      <c r="BE50" s="62"/>
-      <c r="BF50" s="62"/>
+      <c r="AS50" s="74"/>
+      <c r="AT50" s="74"/>
+      <c r="AU50" s="74"/>
+      <c r="AV50" s="74"/>
+      <c r="AW50" s="74"/>
+      <c r="AX50" s="74"/>
+      <c r="AY50" s="74"/>
+      <c r="AZ50" s="74"/>
+      <c r="BA50" s="74"/>
+      <c r="BB50" s="74"/>
+      <c r="BC50" s="74"/>
+      <c r="BD50" s="74"/>
+      <c r="BE50" s="74"/>
+      <c r="BF50" s="74"/>
       <c r="BG50" s="13"/>
       <c r="BH50" s="13"/>
       <c r="BI50" s="13"/>
@@ -13780,27 +13937,27 @@
       <c r="I66" s="6"/>
       <c r="J66" s="6"/>
       <c r="K66" s="6"/>
-      <c r="L66" s="51" t="s">
+      <c r="L66" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="M66" s="51"/>
-      <c r="N66" s="51"/>
-      <c r="O66" s="51"/>
-      <c r="P66" s="51"/>
-      <c r="Q66" s="51"/>
-      <c r="R66" s="51"/>
-      <c r="S66" s="51"/>
-      <c r="T66" s="51"/>
-      <c r="U66" s="51"/>
-      <c r="V66" s="51"/>
-      <c r="W66" s="51"/>
-      <c r="X66" s="51"/>
-      <c r="Y66" s="51"/>
-      <c r="Z66" s="51"/>
-      <c r="AA66" s="51"/>
-      <c r="AB66" s="51"/>
-      <c r="AC66" s="51"/>
-      <c r="AD66" s="51"/>
+      <c r="M66" s="35"/>
+      <c r="N66" s="35"/>
+      <c r="O66" s="35"/>
+      <c r="P66" s="35"/>
+      <c r="Q66" s="35"/>
+      <c r="R66" s="35"/>
+      <c r="S66" s="35"/>
+      <c r="T66" s="35"/>
+      <c r="U66" s="35"/>
+      <c r="V66" s="35"/>
+      <c r="W66" s="35"/>
+      <c r="X66" s="35"/>
+      <c r="Y66" s="35"/>
+      <c r="Z66" s="35"/>
+      <c r="AA66" s="35"/>
+      <c r="AB66" s="35"/>
+      <c r="AC66" s="35"/>
+      <c r="AD66" s="35"/>
       <c r="AE66" s="6"/>
       <c r="AF66" s="6"/>
       <c r="AG66" s="6"/>
@@ -13818,25 +13975,25 @@
       <c r="I67" s="6"/>
       <c r="J67" s="6"/>
       <c r="K67" s="6"/>
-      <c r="L67" s="51"/>
-      <c r="M67" s="51"/>
-      <c r="N67" s="51"/>
-      <c r="O67" s="51"/>
-      <c r="P67" s="51"/>
-      <c r="Q67" s="51"/>
-      <c r="R67" s="51"/>
-      <c r="S67" s="51"/>
-      <c r="T67" s="51"/>
-      <c r="U67" s="51"/>
-      <c r="V67" s="51"/>
-      <c r="W67" s="51"/>
-      <c r="X67" s="51"/>
-      <c r="Y67" s="51"/>
-      <c r="Z67" s="51"/>
-      <c r="AA67" s="51"/>
-      <c r="AB67" s="51"/>
-      <c r="AC67" s="51"/>
-      <c r="AD67" s="51"/>
+      <c r="L67" s="35"/>
+      <c r="M67" s="35"/>
+      <c r="N67" s="35"/>
+      <c r="O67" s="35"/>
+      <c r="P67" s="35"/>
+      <c r="Q67" s="35"/>
+      <c r="R67" s="35"/>
+      <c r="S67" s="35"/>
+      <c r="T67" s="35"/>
+      <c r="U67" s="35"/>
+      <c r="V67" s="35"/>
+      <c r="W67" s="35"/>
+      <c r="X67" s="35"/>
+      <c r="Y67" s="35"/>
+      <c r="Z67" s="35"/>
+      <c r="AA67" s="35"/>
+      <c r="AB67" s="35"/>
+      <c r="AC67" s="35"/>
+      <c r="AD67" s="35"/>
       <c r="AE67" s="6"/>
       <c r="AF67" s="6"/>
       <c r="AG67" s="6"/>
@@ -13919,6 +14076,26 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="A1:H4"/>
+    <mergeCell ref="I1:R4"/>
+    <mergeCell ref="S1:U2"/>
+    <mergeCell ref="V1:AD2"/>
+    <mergeCell ref="AE1:AG2"/>
+    <mergeCell ref="AL1:AN2"/>
+    <mergeCell ref="AO1:AR2"/>
+    <mergeCell ref="S3:U4"/>
+    <mergeCell ref="V3:AD4"/>
+    <mergeCell ref="AE3:AG4"/>
+    <mergeCell ref="AH3:AK4"/>
+    <mergeCell ref="AL3:AN4"/>
+    <mergeCell ref="AO3:AR4"/>
+    <mergeCell ref="AH1:AK2"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:N6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:N7"/>
+    <mergeCell ref="D12:F13"/>
+    <mergeCell ref="H12:J13"/>
     <mergeCell ref="AA20:AC20"/>
     <mergeCell ref="L66:AD67"/>
     <mergeCell ref="AR50:BF50"/>
@@ -13929,26 +14106,6 @@
     <mergeCell ref="AG17:AI17"/>
     <mergeCell ref="K18:N19"/>
     <mergeCell ref="Q12:T13"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:N6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:N7"/>
-    <mergeCell ref="D12:F13"/>
-    <mergeCell ref="H12:J13"/>
-    <mergeCell ref="AL1:AN2"/>
-    <mergeCell ref="AO1:AR2"/>
-    <mergeCell ref="S3:U4"/>
-    <mergeCell ref="V3:AD4"/>
-    <mergeCell ref="AE3:AG4"/>
-    <mergeCell ref="AH3:AK4"/>
-    <mergeCell ref="AL3:AN4"/>
-    <mergeCell ref="AO3:AR4"/>
-    <mergeCell ref="AH1:AK2"/>
-    <mergeCell ref="A1:H4"/>
-    <mergeCell ref="I1:R4"/>
-    <mergeCell ref="S1:U2"/>
-    <mergeCell ref="V1:AD2"/>
-    <mergeCell ref="AE1:AG2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -13972,330 +14129,330 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:44" ht="12" customHeight="1">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="31" t="s">
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="40" t="s">
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="47"/>
+      <c r="R1" s="48"/>
+      <c r="S1" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="T1" s="41"/>
-      <c r="U1" s="42"/>
-      <c r="V1" s="43" t="s">
+      <c r="T1" s="25"/>
+      <c r="U1" s="26"/>
+      <c r="V1" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="W1" s="32"/>
-      <c r="X1" s="32"/>
-      <c r="Y1" s="32"/>
-      <c r="Z1" s="32"/>
-      <c r="AA1" s="32"/>
-      <c r="AB1" s="32"/>
-      <c r="AC1" s="32"/>
-      <c r="AD1" s="33"/>
-      <c r="AE1" s="44" t="s">
+      <c r="W1" s="47"/>
+      <c r="X1" s="47"/>
+      <c r="Y1" s="47"/>
+      <c r="Z1" s="47"/>
+      <c r="AA1" s="47"/>
+      <c r="AB1" s="47"/>
+      <c r="AC1" s="47"/>
+      <c r="AD1" s="48"/>
+      <c r="AE1" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="AF1" s="44"/>
-      <c r="AG1" s="44"/>
-      <c r="AH1" s="48" t="s">
+      <c r="AF1" s="52"/>
+      <c r="AG1" s="52"/>
+      <c r="AH1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="AI1" s="49"/>
-      <c r="AJ1" s="49"/>
-      <c r="AK1" s="49"/>
-      <c r="AL1" s="45" t="s">
+      <c r="AI1" s="54"/>
+      <c r="AJ1" s="54"/>
+      <c r="AK1" s="54"/>
+      <c r="AL1" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="AM1" s="45"/>
-      <c r="AN1" s="45"/>
-      <c r="AO1" s="46" t="s">
+      <c r="AM1" s="43"/>
+      <c r="AN1" s="43"/>
+      <c r="AO1" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="AP1" s="47"/>
-      <c r="AQ1" s="47"/>
-      <c r="AR1" s="47"/>
+      <c r="AP1" s="45"/>
+      <c r="AQ1" s="45"/>
+      <c r="AR1" s="45"/>
     </row>
     <row r="2" spans="1:44" ht="12" customHeight="1">
-      <c r="A2" s="25"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="36"/>
-      <c r="S2" s="40"/>
-      <c r="T2" s="41"/>
-      <c r="U2" s="42"/>
-      <c r="V2" s="37"/>
-      <c r="W2" s="38"/>
-      <c r="X2" s="38"/>
-      <c r="Y2" s="38"/>
-      <c r="Z2" s="38"/>
-      <c r="AA2" s="38"/>
-      <c r="AB2" s="38"/>
-      <c r="AC2" s="38"/>
-      <c r="AD2" s="39"/>
-      <c r="AE2" s="44"/>
-      <c r="AF2" s="44"/>
-      <c r="AG2" s="44"/>
-      <c r="AH2" s="49"/>
-      <c r="AI2" s="49"/>
-      <c r="AJ2" s="49"/>
-      <c r="AK2" s="49"/>
-      <c r="AL2" s="45"/>
-      <c r="AM2" s="45"/>
-      <c r="AN2" s="45"/>
-      <c r="AO2" s="47"/>
-      <c r="AP2" s="47"/>
-      <c r="AQ2" s="47"/>
-      <c r="AR2" s="47"/>
+      <c r="A2" s="58"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="66"/>
+      <c r="O2" s="66"/>
+      <c r="P2" s="66"/>
+      <c r="Q2" s="66"/>
+      <c r="R2" s="67"/>
+      <c r="S2" s="24"/>
+      <c r="T2" s="25"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="49"/>
+      <c r="W2" s="50"/>
+      <c r="X2" s="50"/>
+      <c r="Y2" s="50"/>
+      <c r="Z2" s="50"/>
+      <c r="AA2" s="50"/>
+      <c r="AB2" s="50"/>
+      <c r="AC2" s="50"/>
+      <c r="AD2" s="51"/>
+      <c r="AE2" s="52"/>
+      <c r="AF2" s="52"/>
+      <c r="AG2" s="52"/>
+      <c r="AH2" s="54"/>
+      <c r="AI2" s="54"/>
+      <c r="AJ2" s="54"/>
+      <c r="AK2" s="54"/>
+      <c r="AL2" s="43"/>
+      <c r="AM2" s="43"/>
+      <c r="AN2" s="43"/>
+      <c r="AO2" s="45"/>
+      <c r="AP2" s="45"/>
+      <c r="AQ2" s="45"/>
+      <c r="AR2" s="45"/>
     </row>
     <row r="3" spans="1:44" ht="12" customHeight="1">
-      <c r="A3" s="25"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35"/>
-      <c r="O3" s="35"/>
-      <c r="P3" s="35"/>
-      <c r="Q3" s="35"/>
-      <c r="R3" s="36"/>
-      <c r="S3" s="40" t="s">
+      <c r="A3" s="58"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="66"/>
+      <c r="N3" s="66"/>
+      <c r="O3" s="66"/>
+      <c r="P3" s="66"/>
+      <c r="Q3" s="66"/>
+      <c r="R3" s="67"/>
+      <c r="S3" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="T3" s="41"/>
-      <c r="U3" s="42"/>
-      <c r="V3" s="43" t="s">
+      <c r="T3" s="25"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="W3" s="32"/>
-      <c r="X3" s="32"/>
-      <c r="Y3" s="32"/>
-      <c r="Z3" s="32"/>
-      <c r="AA3" s="32"/>
-      <c r="AB3" s="32"/>
-      <c r="AC3" s="32"/>
-      <c r="AD3" s="33"/>
-      <c r="AE3" s="44" t="s">
+      <c r="W3" s="47"/>
+      <c r="X3" s="47"/>
+      <c r="Y3" s="47"/>
+      <c r="Z3" s="47"/>
+      <c r="AA3" s="47"/>
+      <c r="AB3" s="47"/>
+      <c r="AC3" s="47"/>
+      <c r="AD3" s="48"/>
+      <c r="AE3" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="AF3" s="44"/>
-      <c r="AG3" s="44"/>
-      <c r="AH3" s="48"/>
-      <c r="AI3" s="49"/>
-      <c r="AJ3" s="49"/>
-      <c r="AK3" s="49"/>
-      <c r="AL3" s="44"/>
-      <c r="AM3" s="44"/>
-      <c r="AN3" s="44"/>
-      <c r="AO3" s="49"/>
-      <c r="AP3" s="49"/>
-      <c r="AQ3" s="49"/>
-      <c r="AR3" s="49"/>
+      <c r="AF3" s="52"/>
+      <c r="AG3" s="52"/>
+      <c r="AH3" s="53"/>
+      <c r="AI3" s="54"/>
+      <c r="AJ3" s="54"/>
+      <c r="AK3" s="54"/>
+      <c r="AL3" s="52"/>
+      <c r="AM3" s="52"/>
+      <c r="AN3" s="52"/>
+      <c r="AO3" s="54"/>
+      <c r="AP3" s="54"/>
+      <c r="AQ3" s="54"/>
+      <c r="AR3" s="54"/>
     </row>
     <row r="4" spans="1:44" ht="12" customHeight="1">
-      <c r="A4" s="28"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38"/>
-      <c r="O4" s="38"/>
-      <c r="P4" s="38"/>
-      <c r="Q4" s="38"/>
-      <c r="R4" s="39"/>
-      <c r="S4" s="40"/>
-      <c r="T4" s="41"/>
-      <c r="U4" s="42"/>
-      <c r="V4" s="37"/>
-      <c r="W4" s="38"/>
-      <c r="X4" s="38"/>
-      <c r="Y4" s="38"/>
-      <c r="Z4" s="38"/>
-      <c r="AA4" s="38"/>
-      <c r="AB4" s="38"/>
-      <c r="AC4" s="38"/>
-      <c r="AD4" s="39"/>
-      <c r="AE4" s="44"/>
-      <c r="AF4" s="44"/>
-      <c r="AG4" s="44"/>
-      <c r="AH4" s="49"/>
-      <c r="AI4" s="49"/>
-      <c r="AJ4" s="49"/>
-      <c r="AK4" s="49"/>
-      <c r="AL4" s="44"/>
-      <c r="AM4" s="44"/>
-      <c r="AN4" s="44"/>
-      <c r="AO4" s="49"/>
-      <c r="AP4" s="49"/>
-      <c r="AQ4" s="49"/>
-      <c r="AR4" s="49"/>
+      <c r="A4" s="61"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="50"/>
+      <c r="N4" s="50"/>
+      <c r="O4" s="50"/>
+      <c r="P4" s="50"/>
+      <c r="Q4" s="50"/>
+      <c r="R4" s="51"/>
+      <c r="S4" s="24"/>
+      <c r="T4" s="25"/>
+      <c r="U4" s="26"/>
+      <c r="V4" s="49"/>
+      <c r="W4" s="50"/>
+      <c r="X4" s="50"/>
+      <c r="Y4" s="50"/>
+      <c r="Z4" s="50"/>
+      <c r="AA4" s="50"/>
+      <c r="AB4" s="50"/>
+      <c r="AC4" s="50"/>
+      <c r="AD4" s="51"/>
+      <c r="AE4" s="52"/>
+      <c r="AF4" s="52"/>
+      <c r="AG4" s="52"/>
+      <c r="AH4" s="54"/>
+      <c r="AI4" s="54"/>
+      <c r="AJ4" s="54"/>
+      <c r="AK4" s="54"/>
+      <c r="AL4" s="52"/>
+      <c r="AM4" s="52"/>
+      <c r="AN4" s="52"/>
+      <c r="AO4" s="54"/>
+      <c r="AP4" s="54"/>
+      <c r="AQ4" s="54"/>
+      <c r="AR4" s="54"/>
     </row>
     <row r="6" spans="1:44" ht="12" customHeight="1">
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="55" t="s">
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="G6" s="56"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="56"/>
-      <c r="M6" s="56"/>
-      <c r="N6" s="57"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="29"/>
     </row>
     <row r="7" spans="1:44" ht="12" customHeight="1">
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="55" t="s">
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="G7" s="56"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="56"/>
-      <c r="L7" s="56"/>
-      <c r="M7" s="56"/>
-      <c r="N7" s="57"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="29"/>
     </row>
     <row r="12" spans="1:44" ht="12" customHeight="1">
-      <c r="D12" s="70" t="s">
+      <c r="D12" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="71"/>
-      <c r="F12" s="72"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="38"/>
       <c r="G12" s="3"/>
-      <c r="H12" s="64" t="s">
+      <c r="H12" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="I12" s="65"/>
-      <c r="J12" s="65"/>
-      <c r="K12" s="68"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="22"/>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
-      <c r="Q12" s="70" t="s">
+      <c r="Q12" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="R12" s="71"/>
-      <c r="S12" s="71"/>
-      <c r="T12" s="72"/>
+      <c r="R12" s="37"/>
+      <c r="S12" s="37"/>
+      <c r="T12" s="38"/>
       <c r="U12" s="3"/>
-      <c r="V12" s="70" t="s">
+      <c r="V12" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="W12" s="71"/>
-      <c r="X12" s="71"/>
-      <c r="Y12" s="72"/>
+      <c r="W12" s="37"/>
+      <c r="X12" s="37"/>
+      <c r="Y12" s="38"/>
       <c r="Z12" s="3"/>
-      <c r="AA12" s="70" t="s">
+      <c r="AA12" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="AB12" s="71"/>
-      <c r="AC12" s="71"/>
-      <c r="AD12" s="72"/>
+      <c r="AB12" s="37"/>
+      <c r="AC12" s="37"/>
+      <c r="AD12" s="38"/>
       <c r="AE12" s="3"/>
-      <c r="AF12" s="70" t="s">
+      <c r="AF12" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="AG12" s="71"/>
-      <c r="AH12" s="71"/>
-      <c r="AI12" s="72"/>
+      <c r="AG12" s="37"/>
+      <c r="AH12" s="37"/>
+      <c r="AI12" s="38"/>
       <c r="AJ12" s="3"/>
       <c r="AK12" s="4"/>
     </row>
     <row r="13" spans="1:44" ht="12" customHeight="1">
-      <c r="D13" s="73"/>
-      <c r="E13" s="74"/>
-      <c r="F13" s="75"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="41"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="66"/>
-      <c r="I13" s="67"/>
-      <c r="J13" s="67"/>
-      <c r="K13" s="69"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="23"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
-      <c r="Q13" s="73"/>
-      <c r="R13" s="74"/>
-      <c r="S13" s="74"/>
-      <c r="T13" s="75"/>
+      <c r="Q13" s="39"/>
+      <c r="R13" s="40"/>
+      <c r="S13" s="40"/>
+      <c r="T13" s="41"/>
       <c r="U13" s="1"/>
-      <c r="V13" s="73"/>
-      <c r="W13" s="74"/>
-      <c r="X13" s="74"/>
-      <c r="Y13" s="75"/>
+      <c r="V13" s="39"/>
+      <c r="W13" s="40"/>
+      <c r="X13" s="40"/>
+      <c r="Y13" s="41"/>
       <c r="Z13" s="1"/>
-      <c r="AA13" s="73"/>
-      <c r="AB13" s="74"/>
-      <c r="AC13" s="74"/>
-      <c r="AD13" s="75"/>
+      <c r="AA13" s="39"/>
+      <c r="AB13" s="40"/>
+      <c r="AC13" s="40"/>
+      <c r="AD13" s="41"/>
       <c r="AE13" s="1"/>
-      <c r="AF13" s="73"/>
-      <c r="AG13" s="74"/>
-      <c r="AH13" s="74"/>
-      <c r="AI13" s="75"/>
+      <c r="AF13" s="39"/>
+      <c r="AG13" s="40"/>
+      <c r="AH13" s="40"/>
+      <c r="AI13" s="41"/>
       <c r="AJ13" s="1"/>
       <c r="AK13" s="9"/>
     </row>
@@ -14445,17 +14602,17 @@
     </row>
     <row r="18" spans="4:37" ht="12" customHeight="1">
       <c r="D18" s="5"/>
-      <c r="E18" s="63" t="s">
+      <c r="E18" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="F18" s="63"/>
-      <c r="G18" s="63"/>
-      <c r="H18" s="63"/>
-      <c r="I18" s="63"/>
-      <c r="J18" s="63"/>
-      <c r="K18" s="63"/>
-      <c r="L18" s="63"/>
-      <c r="M18" s="63"/>
+      <c r="F18" s="75"/>
+      <c r="G18" s="75"/>
+      <c r="H18" s="75"/>
+      <c r="I18" s="75"/>
+      <c r="J18" s="75"/>
+      <c r="K18" s="75"/>
+      <c r="L18" s="75"/>
+      <c r="M18" s="75"/>
       <c r="N18" s="6"/>
       <c r="O18" s="6"/>
       <c r="P18" s="6"/>
@@ -14483,15 +14640,15 @@
     </row>
     <row r="19" spans="4:37" ht="12" customHeight="1">
       <c r="D19" s="5"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="63"/>
-      <c r="K19" s="63"/>
-      <c r="L19" s="63"/>
-      <c r="M19" s="63"/>
+      <c r="E19" s="75"/>
+      <c r="F19" s="75"/>
+      <c r="G19" s="75"/>
+      <c r="H19" s="75"/>
+      <c r="I19" s="75"/>
+      <c r="J19" s="75"/>
+      <c r="K19" s="75"/>
+      <c r="L19" s="75"/>
+      <c r="M19" s="75"/>
       <c r="N19" s="6"/>
       <c r="O19" s="6"/>
       <c r="P19" s="6"/>
@@ -16038,27 +16195,27 @@
       <c r="I62" s="6"/>
       <c r="J62" s="6"/>
       <c r="K62" s="6"/>
-      <c r="L62" s="51" t="s">
+      <c r="L62" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="M62" s="51"/>
-      <c r="N62" s="51"/>
-      <c r="O62" s="51"/>
-      <c r="P62" s="51"/>
-      <c r="Q62" s="51"/>
-      <c r="R62" s="51"/>
-      <c r="S62" s="51"/>
-      <c r="T62" s="51"/>
-      <c r="U62" s="51"/>
-      <c r="V62" s="51"/>
-      <c r="W62" s="51"/>
-      <c r="X62" s="51"/>
-      <c r="Y62" s="51"/>
-      <c r="Z62" s="51"/>
-      <c r="AA62" s="51"/>
-      <c r="AB62" s="51"/>
-      <c r="AC62" s="51"/>
-      <c r="AD62" s="51"/>
+      <c r="M62" s="35"/>
+      <c r="N62" s="35"/>
+      <c r="O62" s="35"/>
+      <c r="P62" s="35"/>
+      <c r="Q62" s="35"/>
+      <c r="R62" s="35"/>
+      <c r="S62" s="35"/>
+      <c r="T62" s="35"/>
+      <c r="U62" s="35"/>
+      <c r="V62" s="35"/>
+      <c r="W62" s="35"/>
+      <c r="X62" s="35"/>
+      <c r="Y62" s="35"/>
+      <c r="Z62" s="35"/>
+      <c r="AA62" s="35"/>
+      <c r="AB62" s="35"/>
+      <c r="AC62" s="35"/>
+      <c r="AD62" s="35"/>
       <c r="AE62" s="6"/>
       <c r="AF62" s="6"/>
       <c r="AG62" s="6"/>
@@ -16076,25 +16233,25 @@
       <c r="I63" s="6"/>
       <c r="J63" s="6"/>
       <c r="K63" s="6"/>
-      <c r="L63" s="51"/>
-      <c r="M63" s="51"/>
-      <c r="N63" s="51"/>
-      <c r="O63" s="51"/>
-      <c r="P63" s="51"/>
-      <c r="Q63" s="51"/>
-      <c r="R63" s="51"/>
-      <c r="S63" s="51"/>
-      <c r="T63" s="51"/>
-      <c r="U63" s="51"/>
-      <c r="V63" s="51"/>
-      <c r="W63" s="51"/>
-      <c r="X63" s="51"/>
-      <c r="Y63" s="51"/>
-      <c r="Z63" s="51"/>
-      <c r="AA63" s="51"/>
-      <c r="AB63" s="51"/>
-      <c r="AC63" s="51"/>
-      <c r="AD63" s="51"/>
+      <c r="L63" s="35"/>
+      <c r="M63" s="35"/>
+      <c r="N63" s="35"/>
+      <c r="O63" s="35"/>
+      <c r="P63" s="35"/>
+      <c r="Q63" s="35"/>
+      <c r="R63" s="35"/>
+      <c r="S63" s="35"/>
+      <c r="T63" s="35"/>
+      <c r="U63" s="35"/>
+      <c r="V63" s="35"/>
+      <c r="W63" s="35"/>
+      <c r="X63" s="35"/>
+      <c r="Y63" s="35"/>
+      <c r="Z63" s="35"/>
+      <c r="AA63" s="35"/>
+      <c r="AB63" s="35"/>
+      <c r="AC63" s="35"/>
+      <c r="AD63" s="35"/>
       <c r="AE63" s="6"/>
       <c r="AF63" s="6"/>
       <c r="AG63" s="6"/>
@@ -16177,18 +16334,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="E18:M19"/>
-    <mergeCell ref="L62:AD63"/>
-    <mergeCell ref="H12:J13"/>
-    <mergeCell ref="D12:F13"/>
-    <mergeCell ref="Q12:T13"/>
-    <mergeCell ref="V12:Y13"/>
-    <mergeCell ref="AA12:AD13"/>
-    <mergeCell ref="AF12:AI13"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:N6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:N7"/>
     <mergeCell ref="AL1:AN2"/>
     <mergeCell ref="A1:H4"/>
     <mergeCell ref="I1:R4"/>
@@ -16203,6 +16348,18 @@
     <mergeCell ref="V1:AD2"/>
     <mergeCell ref="AE1:AG2"/>
     <mergeCell ref="AH1:AK2"/>
+    <mergeCell ref="AF12:AI13"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:N6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:N7"/>
+    <mergeCell ref="E18:M19"/>
+    <mergeCell ref="L62:AD63"/>
+    <mergeCell ref="H12:J13"/>
+    <mergeCell ref="D12:F13"/>
+    <mergeCell ref="Q12:T13"/>
+    <mergeCell ref="V12:Y13"/>
+    <mergeCell ref="AA12:AD13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -16214,7 +16371,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="T21" sqref="T21"/>
     </sheetView>
   </sheetViews>
@@ -16227,330 +16384,330 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:44" ht="12" customHeight="1">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="31" t="s">
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="40" t="s">
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="47"/>
+      <c r="R1" s="48"/>
+      <c r="S1" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="T1" s="41"/>
-      <c r="U1" s="42"/>
-      <c r="V1" s="43" t="s">
+      <c r="T1" s="25"/>
+      <c r="U1" s="26"/>
+      <c r="V1" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="W1" s="32"/>
-      <c r="X1" s="32"/>
-      <c r="Y1" s="32"/>
-      <c r="Z1" s="32"/>
-      <c r="AA1" s="32"/>
-      <c r="AB1" s="32"/>
-      <c r="AC1" s="32"/>
-      <c r="AD1" s="33"/>
-      <c r="AE1" s="44" t="s">
+      <c r="W1" s="47"/>
+      <c r="X1" s="47"/>
+      <c r="Y1" s="47"/>
+      <c r="Z1" s="47"/>
+      <c r="AA1" s="47"/>
+      <c r="AB1" s="47"/>
+      <c r="AC1" s="47"/>
+      <c r="AD1" s="48"/>
+      <c r="AE1" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="AF1" s="44"/>
-      <c r="AG1" s="44"/>
-      <c r="AH1" s="48" t="s">
+      <c r="AF1" s="52"/>
+      <c r="AG1" s="52"/>
+      <c r="AH1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="AI1" s="49"/>
-      <c r="AJ1" s="49"/>
-      <c r="AK1" s="49"/>
-      <c r="AL1" s="45" t="s">
+      <c r="AI1" s="54"/>
+      <c r="AJ1" s="54"/>
+      <c r="AK1" s="54"/>
+      <c r="AL1" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="AM1" s="45"/>
-      <c r="AN1" s="45"/>
-      <c r="AO1" s="46" t="s">
+      <c r="AM1" s="43"/>
+      <c r="AN1" s="43"/>
+      <c r="AO1" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="AP1" s="47"/>
-      <c r="AQ1" s="47"/>
-      <c r="AR1" s="47"/>
+      <c r="AP1" s="45"/>
+      <c r="AQ1" s="45"/>
+      <c r="AR1" s="45"/>
     </row>
     <row r="2" spans="1:44" ht="12" customHeight="1">
-      <c r="A2" s="25"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="36"/>
-      <c r="S2" s="40"/>
-      <c r="T2" s="41"/>
-      <c r="U2" s="42"/>
-      <c r="V2" s="37"/>
-      <c r="W2" s="38"/>
-      <c r="X2" s="38"/>
-      <c r="Y2" s="38"/>
-      <c r="Z2" s="38"/>
-      <c r="AA2" s="38"/>
-      <c r="AB2" s="38"/>
-      <c r="AC2" s="38"/>
-      <c r="AD2" s="39"/>
-      <c r="AE2" s="44"/>
-      <c r="AF2" s="44"/>
-      <c r="AG2" s="44"/>
-      <c r="AH2" s="49"/>
-      <c r="AI2" s="49"/>
-      <c r="AJ2" s="49"/>
-      <c r="AK2" s="49"/>
-      <c r="AL2" s="45"/>
-      <c r="AM2" s="45"/>
-      <c r="AN2" s="45"/>
-      <c r="AO2" s="47"/>
-      <c r="AP2" s="47"/>
-      <c r="AQ2" s="47"/>
-      <c r="AR2" s="47"/>
+      <c r="A2" s="58"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="66"/>
+      <c r="O2" s="66"/>
+      <c r="P2" s="66"/>
+      <c r="Q2" s="66"/>
+      <c r="R2" s="67"/>
+      <c r="S2" s="24"/>
+      <c r="T2" s="25"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="49"/>
+      <c r="W2" s="50"/>
+      <c r="X2" s="50"/>
+      <c r="Y2" s="50"/>
+      <c r="Z2" s="50"/>
+      <c r="AA2" s="50"/>
+      <c r="AB2" s="50"/>
+      <c r="AC2" s="50"/>
+      <c r="AD2" s="51"/>
+      <c r="AE2" s="52"/>
+      <c r="AF2" s="52"/>
+      <c r="AG2" s="52"/>
+      <c r="AH2" s="54"/>
+      <c r="AI2" s="54"/>
+      <c r="AJ2" s="54"/>
+      <c r="AK2" s="54"/>
+      <c r="AL2" s="43"/>
+      <c r="AM2" s="43"/>
+      <c r="AN2" s="43"/>
+      <c r="AO2" s="45"/>
+      <c r="AP2" s="45"/>
+      <c r="AQ2" s="45"/>
+      <c r="AR2" s="45"/>
     </row>
     <row r="3" spans="1:44" ht="12" customHeight="1">
-      <c r="A3" s="25"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35"/>
-      <c r="O3" s="35"/>
-      <c r="P3" s="35"/>
-      <c r="Q3" s="35"/>
-      <c r="R3" s="36"/>
-      <c r="S3" s="40" t="s">
+      <c r="A3" s="58"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="66"/>
+      <c r="N3" s="66"/>
+      <c r="O3" s="66"/>
+      <c r="P3" s="66"/>
+      <c r="Q3" s="66"/>
+      <c r="R3" s="67"/>
+      <c r="S3" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="T3" s="41"/>
-      <c r="U3" s="42"/>
-      <c r="V3" s="43" t="s">
+      <c r="T3" s="25"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="W3" s="32"/>
-      <c r="X3" s="32"/>
-      <c r="Y3" s="32"/>
-      <c r="Z3" s="32"/>
-      <c r="AA3" s="32"/>
-      <c r="AB3" s="32"/>
-      <c r="AC3" s="32"/>
-      <c r="AD3" s="33"/>
-      <c r="AE3" s="44" t="s">
+      <c r="W3" s="47"/>
+      <c r="X3" s="47"/>
+      <c r="Y3" s="47"/>
+      <c r="Z3" s="47"/>
+      <c r="AA3" s="47"/>
+      <c r="AB3" s="47"/>
+      <c r="AC3" s="47"/>
+      <c r="AD3" s="48"/>
+      <c r="AE3" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="AF3" s="44"/>
-      <c r="AG3" s="44"/>
-      <c r="AH3" s="48"/>
-      <c r="AI3" s="49"/>
-      <c r="AJ3" s="49"/>
-      <c r="AK3" s="49"/>
-      <c r="AL3" s="44"/>
-      <c r="AM3" s="44"/>
-      <c r="AN3" s="44"/>
-      <c r="AO3" s="49"/>
-      <c r="AP3" s="49"/>
-      <c r="AQ3" s="49"/>
-      <c r="AR3" s="49"/>
+      <c r="AF3" s="52"/>
+      <c r="AG3" s="52"/>
+      <c r="AH3" s="53"/>
+      <c r="AI3" s="54"/>
+      <c r="AJ3" s="54"/>
+      <c r="AK3" s="54"/>
+      <c r="AL3" s="52"/>
+      <c r="AM3" s="52"/>
+      <c r="AN3" s="52"/>
+      <c r="AO3" s="54"/>
+      <c r="AP3" s="54"/>
+      <c r="AQ3" s="54"/>
+      <c r="AR3" s="54"/>
     </row>
     <row r="4" spans="1:44" ht="12" customHeight="1">
-      <c r="A4" s="28"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38"/>
-      <c r="O4" s="38"/>
-      <c r="P4" s="38"/>
-      <c r="Q4" s="38"/>
-      <c r="R4" s="39"/>
-      <c r="S4" s="40"/>
-      <c r="T4" s="41"/>
-      <c r="U4" s="42"/>
-      <c r="V4" s="37"/>
-      <c r="W4" s="38"/>
-      <c r="X4" s="38"/>
-      <c r="Y4" s="38"/>
-      <c r="Z4" s="38"/>
-      <c r="AA4" s="38"/>
-      <c r="AB4" s="38"/>
-      <c r="AC4" s="38"/>
-      <c r="AD4" s="39"/>
-      <c r="AE4" s="44"/>
-      <c r="AF4" s="44"/>
-      <c r="AG4" s="44"/>
-      <c r="AH4" s="49"/>
-      <c r="AI4" s="49"/>
-      <c r="AJ4" s="49"/>
-      <c r="AK4" s="49"/>
-      <c r="AL4" s="44"/>
-      <c r="AM4" s="44"/>
-      <c r="AN4" s="44"/>
-      <c r="AO4" s="49"/>
-      <c r="AP4" s="49"/>
-      <c r="AQ4" s="49"/>
-      <c r="AR4" s="49"/>
+      <c r="A4" s="61"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="50"/>
+      <c r="N4" s="50"/>
+      <c r="O4" s="50"/>
+      <c r="P4" s="50"/>
+      <c r="Q4" s="50"/>
+      <c r="R4" s="51"/>
+      <c r="S4" s="24"/>
+      <c r="T4" s="25"/>
+      <c r="U4" s="26"/>
+      <c r="V4" s="49"/>
+      <c r="W4" s="50"/>
+      <c r="X4" s="50"/>
+      <c r="Y4" s="50"/>
+      <c r="Z4" s="50"/>
+      <c r="AA4" s="50"/>
+      <c r="AB4" s="50"/>
+      <c r="AC4" s="50"/>
+      <c r="AD4" s="51"/>
+      <c r="AE4" s="52"/>
+      <c r="AF4" s="52"/>
+      <c r="AG4" s="52"/>
+      <c r="AH4" s="54"/>
+      <c r="AI4" s="54"/>
+      <c r="AJ4" s="54"/>
+      <c r="AK4" s="54"/>
+      <c r="AL4" s="52"/>
+      <c r="AM4" s="52"/>
+      <c r="AN4" s="52"/>
+      <c r="AO4" s="54"/>
+      <c r="AP4" s="54"/>
+      <c r="AQ4" s="54"/>
+      <c r="AR4" s="54"/>
     </row>
     <row r="6" spans="1:44" ht="12" customHeight="1">
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="55" t="s">
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="56"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="56"/>
-      <c r="M6" s="56"/>
-      <c r="N6" s="57"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="29"/>
     </row>
     <row r="7" spans="1:44" ht="12" customHeight="1">
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="55" t="s">
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="G7" s="56"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="56"/>
-      <c r="L7" s="56"/>
-      <c r="M7" s="56"/>
-      <c r="N7" s="57"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="29"/>
     </row>
     <row r="12" spans="1:44" ht="12" customHeight="1">
-      <c r="D12" s="70" t="s">
+      <c r="D12" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="71"/>
-      <c r="F12" s="72"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="38"/>
       <c r="G12" s="3"/>
-      <c r="H12" s="64" t="s">
+      <c r="H12" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="I12" s="65"/>
-      <c r="J12" s="65"/>
-      <c r="K12" s="68"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="22"/>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
-      <c r="Q12" s="70" t="s">
+      <c r="Q12" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="R12" s="71"/>
-      <c r="S12" s="71"/>
-      <c r="T12" s="72"/>
+      <c r="R12" s="37"/>
+      <c r="S12" s="37"/>
+      <c r="T12" s="38"/>
       <c r="U12" s="3"/>
-      <c r="V12" s="70" t="s">
+      <c r="V12" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="W12" s="71"/>
-      <c r="X12" s="71"/>
-      <c r="Y12" s="72"/>
+      <c r="W12" s="37"/>
+      <c r="X12" s="37"/>
+      <c r="Y12" s="38"/>
       <c r="Z12" s="3"/>
-      <c r="AA12" s="70" t="s">
+      <c r="AA12" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="AB12" s="71"/>
-      <c r="AC12" s="71"/>
-      <c r="AD12" s="72"/>
+      <c r="AB12" s="37"/>
+      <c r="AC12" s="37"/>
+      <c r="AD12" s="38"/>
       <c r="AE12" s="3"/>
-      <c r="AF12" s="70" t="s">
+      <c r="AF12" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="AG12" s="71"/>
-      <c r="AH12" s="71"/>
-      <c r="AI12" s="72"/>
+      <c r="AG12" s="37"/>
+      <c r="AH12" s="37"/>
+      <c r="AI12" s="38"/>
       <c r="AJ12" s="3"/>
       <c r="AK12" s="4"/>
     </row>
     <row r="13" spans="1:44" ht="12" customHeight="1">
-      <c r="D13" s="73"/>
-      <c r="E13" s="74"/>
-      <c r="F13" s="75"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="41"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="66"/>
-      <c r="I13" s="67"/>
-      <c r="J13" s="67"/>
-      <c r="K13" s="69"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="23"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
-      <c r="Q13" s="73"/>
-      <c r="R13" s="74"/>
-      <c r="S13" s="74"/>
-      <c r="T13" s="75"/>
+      <c r="Q13" s="39"/>
+      <c r="R13" s="40"/>
+      <c r="S13" s="40"/>
+      <c r="T13" s="41"/>
       <c r="U13" s="1"/>
-      <c r="V13" s="73"/>
-      <c r="W13" s="74"/>
-      <c r="X13" s="74"/>
-      <c r="Y13" s="75"/>
+      <c r="V13" s="39"/>
+      <c r="W13" s="40"/>
+      <c r="X13" s="40"/>
+      <c r="Y13" s="41"/>
       <c r="Z13" s="1"/>
-      <c r="AA13" s="73"/>
-      <c r="AB13" s="74"/>
-      <c r="AC13" s="74"/>
-      <c r="AD13" s="75"/>
+      <c r="AA13" s="39"/>
+      <c r="AB13" s="40"/>
+      <c r="AC13" s="40"/>
+      <c r="AD13" s="41"/>
       <c r="AE13" s="1"/>
-      <c r="AF13" s="73"/>
-      <c r="AG13" s="74"/>
-      <c r="AH13" s="74"/>
-      <c r="AI13" s="75"/>
+      <c r="AF13" s="39"/>
+      <c r="AG13" s="40"/>
+      <c r="AH13" s="40"/>
+      <c r="AI13" s="41"/>
       <c r="AJ13" s="1"/>
       <c r="AK13" s="9"/>
     </row>
@@ -16700,17 +16857,17 @@
     </row>
     <row r="18" spans="4:37" ht="12" customHeight="1">
       <c r="D18" s="5"/>
-      <c r="E18" s="63" t="s">
+      <c r="E18" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="F18" s="63"/>
-      <c r="G18" s="63"/>
-      <c r="H18" s="63"/>
-      <c r="I18" s="63"/>
-      <c r="J18" s="63"/>
-      <c r="K18" s="63"/>
-      <c r="L18" s="63"/>
-      <c r="M18" s="63"/>
+      <c r="F18" s="75"/>
+      <c r="G18" s="75"/>
+      <c r="H18" s="75"/>
+      <c r="I18" s="75"/>
+      <c r="J18" s="75"/>
+      <c r="K18" s="75"/>
+      <c r="L18" s="75"/>
+      <c r="M18" s="75"/>
       <c r="N18" s="6"/>
       <c r="O18" s="6"/>
       <c r="P18" s="6"/>
@@ -16738,15 +16895,15 @@
     </row>
     <row r="19" spans="4:37" ht="12" customHeight="1">
       <c r="D19" s="5"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="63"/>
-      <c r="K19" s="63"/>
-      <c r="L19" s="63"/>
-      <c r="M19" s="63"/>
+      <c r="E19" s="75"/>
+      <c r="F19" s="75"/>
+      <c r="G19" s="75"/>
+      <c r="H19" s="75"/>
+      <c r="I19" s="75"/>
+      <c r="J19" s="75"/>
+      <c r="K19" s="75"/>
+      <c r="L19" s="75"/>
+      <c r="M19" s="75"/>
       <c r="N19" s="6"/>
       <c r="O19" s="6"/>
       <c r="P19" s="6"/>
@@ -16891,28 +17048,28 @@
       <c r="K23" s="6"/>
       <c r="L23" s="6"/>
       <c r="M23" s="6"/>
-      <c r="N23" s="50"/>
-      <c r="O23" s="50"/>
-      <c r="P23" s="50"/>
-      <c r="Q23" s="50"/>
-      <c r="R23" s="50"/>
-      <c r="S23" s="50"/>
-      <c r="T23" s="50"/>
-      <c r="U23" s="50"/>
-      <c r="V23" s="50"/>
-      <c r="W23" s="50"/>
-      <c r="X23" s="50"/>
-      <c r="Y23" s="50"/>
-      <c r="Z23" s="50"/>
-      <c r="AA23" s="50"/>
-      <c r="AB23" s="50"/>
-      <c r="AC23" s="50"/>
-      <c r="AD23" s="50"/>
-      <c r="AE23" s="50"/>
-      <c r="AF23" s="50"/>
-      <c r="AG23" s="50"/>
-      <c r="AH23" s="50"/>
-      <c r="AI23" s="50"/>
+      <c r="N23" s="34"/>
+      <c r="O23" s="34"/>
+      <c r="P23" s="34"/>
+      <c r="Q23" s="34"/>
+      <c r="R23" s="34"/>
+      <c r="S23" s="34"/>
+      <c r="T23" s="34"/>
+      <c r="U23" s="34"/>
+      <c r="V23" s="34"/>
+      <c r="W23" s="34"/>
+      <c r="X23" s="34"/>
+      <c r="Y23" s="34"/>
+      <c r="Z23" s="34"/>
+      <c r="AA23" s="34"/>
+      <c r="AB23" s="34"/>
+      <c r="AC23" s="34"/>
+      <c r="AD23" s="34"/>
+      <c r="AE23" s="34"/>
+      <c r="AF23" s="34"/>
+      <c r="AG23" s="34"/>
+      <c r="AH23" s="34"/>
+      <c r="AI23" s="34"/>
       <c r="AJ23" s="6"/>
       <c r="AK23" s="7"/>
     </row>
@@ -16927,28 +17084,28 @@
       <c r="K24" s="6"/>
       <c r="L24" s="6"/>
       <c r="M24" s="6"/>
-      <c r="N24" s="50"/>
-      <c r="O24" s="50"/>
-      <c r="P24" s="50"/>
-      <c r="Q24" s="50"/>
-      <c r="R24" s="50"/>
-      <c r="S24" s="50"/>
-      <c r="T24" s="50"/>
-      <c r="U24" s="50"/>
-      <c r="V24" s="50"/>
-      <c r="W24" s="50"/>
-      <c r="X24" s="50"/>
-      <c r="Y24" s="50"/>
-      <c r="Z24" s="50"/>
-      <c r="AA24" s="50"/>
-      <c r="AB24" s="50"/>
-      <c r="AC24" s="50"/>
-      <c r="AD24" s="50"/>
-      <c r="AE24" s="50"/>
-      <c r="AF24" s="50"/>
-      <c r="AG24" s="50"/>
-      <c r="AH24" s="50"/>
-      <c r="AI24" s="50"/>
+      <c r="N24" s="34"/>
+      <c r="O24" s="34"/>
+      <c r="P24" s="34"/>
+      <c r="Q24" s="34"/>
+      <c r="R24" s="34"/>
+      <c r="S24" s="34"/>
+      <c r="T24" s="34"/>
+      <c r="U24" s="34"/>
+      <c r="V24" s="34"/>
+      <c r="W24" s="34"/>
+      <c r="X24" s="34"/>
+      <c r="Y24" s="34"/>
+      <c r="Z24" s="34"/>
+      <c r="AA24" s="34"/>
+      <c r="AB24" s="34"/>
+      <c r="AC24" s="34"/>
+      <c r="AD24" s="34"/>
+      <c r="AE24" s="34"/>
+      <c r="AF24" s="34"/>
+      <c r="AG24" s="34"/>
+      <c r="AH24" s="34"/>
+      <c r="AI24" s="34"/>
       <c r="AJ24" s="6"/>
       <c r="AK24" s="7"/>
     </row>
@@ -16963,28 +17120,28 @@
       <c r="K25" s="6"/>
       <c r="L25" s="6"/>
       <c r="M25" s="6"/>
-      <c r="N25" s="50"/>
-      <c r="O25" s="50"/>
-      <c r="P25" s="50"/>
-      <c r="Q25" s="50"/>
-      <c r="R25" s="50"/>
-      <c r="S25" s="50"/>
-      <c r="T25" s="50"/>
-      <c r="U25" s="50"/>
-      <c r="V25" s="50"/>
-      <c r="W25" s="50"/>
-      <c r="X25" s="50"/>
-      <c r="Y25" s="50"/>
-      <c r="Z25" s="50"/>
-      <c r="AA25" s="50"/>
-      <c r="AB25" s="50"/>
-      <c r="AC25" s="50"/>
-      <c r="AD25" s="50"/>
-      <c r="AE25" s="50"/>
-      <c r="AF25" s="50"/>
-      <c r="AG25" s="50"/>
-      <c r="AH25" s="50"/>
-      <c r="AI25" s="50"/>
+      <c r="N25" s="34"/>
+      <c r="O25" s="34"/>
+      <c r="P25" s="34"/>
+      <c r="Q25" s="34"/>
+      <c r="R25" s="34"/>
+      <c r="S25" s="34"/>
+      <c r="T25" s="34"/>
+      <c r="U25" s="34"/>
+      <c r="V25" s="34"/>
+      <c r="W25" s="34"/>
+      <c r="X25" s="34"/>
+      <c r="Y25" s="34"/>
+      <c r="Z25" s="34"/>
+      <c r="AA25" s="34"/>
+      <c r="AB25" s="34"/>
+      <c r="AC25" s="34"/>
+      <c r="AD25" s="34"/>
+      <c r="AE25" s="34"/>
+      <c r="AF25" s="34"/>
+      <c r="AG25" s="34"/>
+      <c r="AH25" s="34"/>
+      <c r="AI25" s="34"/>
       <c r="AJ25" s="6"/>
       <c r="AK25" s="7"/>
     </row>
@@ -16999,28 +17156,28 @@
       <c r="K26" s="6"/>
       <c r="L26" s="6"/>
       <c r="M26" s="6"/>
-      <c r="N26" s="50"/>
-      <c r="O26" s="50"/>
-      <c r="P26" s="50"/>
-      <c r="Q26" s="50"/>
-      <c r="R26" s="50"/>
-      <c r="S26" s="50"/>
-      <c r="T26" s="50"/>
-      <c r="U26" s="50"/>
-      <c r="V26" s="50"/>
-      <c r="W26" s="50"/>
-      <c r="X26" s="50"/>
-      <c r="Y26" s="50"/>
-      <c r="Z26" s="50"/>
-      <c r="AA26" s="50"/>
-      <c r="AB26" s="50"/>
-      <c r="AC26" s="50"/>
-      <c r="AD26" s="50"/>
-      <c r="AE26" s="50"/>
-      <c r="AF26" s="50"/>
-      <c r="AG26" s="50"/>
-      <c r="AH26" s="50"/>
-      <c r="AI26" s="50"/>
+      <c r="N26" s="34"/>
+      <c r="O26" s="34"/>
+      <c r="P26" s="34"/>
+      <c r="Q26" s="34"/>
+      <c r="R26" s="34"/>
+      <c r="S26" s="34"/>
+      <c r="T26" s="34"/>
+      <c r="U26" s="34"/>
+      <c r="V26" s="34"/>
+      <c r="W26" s="34"/>
+      <c r="X26" s="34"/>
+      <c r="Y26" s="34"/>
+      <c r="Z26" s="34"/>
+      <c r="AA26" s="34"/>
+      <c r="AB26" s="34"/>
+      <c r="AC26" s="34"/>
+      <c r="AD26" s="34"/>
+      <c r="AE26" s="34"/>
+      <c r="AF26" s="34"/>
+      <c r="AG26" s="34"/>
+      <c r="AH26" s="34"/>
+      <c r="AI26" s="34"/>
       <c r="AJ26" s="6"/>
       <c r="AK26" s="7"/>
     </row>
@@ -17035,28 +17192,28 @@
       <c r="K27" s="6"/>
       <c r="L27" s="6"/>
       <c r="M27" s="6"/>
-      <c r="N27" s="50"/>
-      <c r="O27" s="50"/>
-      <c r="P27" s="50"/>
-      <c r="Q27" s="50"/>
-      <c r="R27" s="50"/>
-      <c r="S27" s="50"/>
-      <c r="T27" s="50"/>
-      <c r="U27" s="50"/>
-      <c r="V27" s="50"/>
-      <c r="W27" s="50"/>
-      <c r="X27" s="50"/>
-      <c r="Y27" s="50"/>
-      <c r="Z27" s="50"/>
-      <c r="AA27" s="50"/>
-      <c r="AB27" s="50"/>
-      <c r="AC27" s="50"/>
-      <c r="AD27" s="50"/>
-      <c r="AE27" s="50"/>
-      <c r="AF27" s="50"/>
-      <c r="AG27" s="50"/>
-      <c r="AH27" s="50"/>
-      <c r="AI27" s="50"/>
+      <c r="N27" s="34"/>
+      <c r="O27" s="34"/>
+      <c r="P27" s="34"/>
+      <c r="Q27" s="34"/>
+      <c r="R27" s="34"/>
+      <c r="S27" s="34"/>
+      <c r="T27" s="34"/>
+      <c r="U27" s="34"/>
+      <c r="V27" s="34"/>
+      <c r="W27" s="34"/>
+      <c r="X27" s="34"/>
+      <c r="Y27" s="34"/>
+      <c r="Z27" s="34"/>
+      <c r="AA27" s="34"/>
+      <c r="AB27" s="34"/>
+      <c r="AC27" s="34"/>
+      <c r="AD27" s="34"/>
+      <c r="AE27" s="34"/>
+      <c r="AF27" s="34"/>
+      <c r="AG27" s="34"/>
+      <c r="AH27" s="34"/>
+      <c r="AI27" s="34"/>
       <c r="AJ27" s="6"/>
       <c r="AK27" s="7"/>
     </row>
@@ -17071,28 +17228,28 @@
       <c r="K28" s="6"/>
       <c r="L28" s="6"/>
       <c r="M28" s="6"/>
-      <c r="N28" s="50"/>
-      <c r="O28" s="50"/>
-      <c r="P28" s="50"/>
-      <c r="Q28" s="50"/>
-      <c r="R28" s="50"/>
-      <c r="S28" s="50"/>
-      <c r="T28" s="50"/>
-      <c r="U28" s="50"/>
-      <c r="V28" s="50"/>
-      <c r="W28" s="50"/>
-      <c r="X28" s="50"/>
-      <c r="Y28" s="50"/>
-      <c r="Z28" s="50"/>
-      <c r="AA28" s="50"/>
-      <c r="AB28" s="50"/>
-      <c r="AC28" s="50"/>
-      <c r="AD28" s="50"/>
-      <c r="AE28" s="50"/>
-      <c r="AF28" s="50"/>
-      <c r="AG28" s="50"/>
-      <c r="AH28" s="50"/>
-      <c r="AI28" s="50"/>
+      <c r="N28" s="34"/>
+      <c r="O28" s="34"/>
+      <c r="P28" s="34"/>
+      <c r="Q28" s="34"/>
+      <c r="R28" s="34"/>
+      <c r="S28" s="34"/>
+      <c r="T28" s="34"/>
+      <c r="U28" s="34"/>
+      <c r="V28" s="34"/>
+      <c r="W28" s="34"/>
+      <c r="X28" s="34"/>
+      <c r="Y28" s="34"/>
+      <c r="Z28" s="34"/>
+      <c r="AA28" s="34"/>
+      <c r="AB28" s="34"/>
+      <c r="AC28" s="34"/>
+      <c r="AD28" s="34"/>
+      <c r="AE28" s="34"/>
+      <c r="AF28" s="34"/>
+      <c r="AG28" s="34"/>
+      <c r="AH28" s="34"/>
+      <c r="AI28" s="34"/>
       <c r="AJ28" s="6"/>
       <c r="AK28" s="7"/>
     </row>
@@ -17107,28 +17264,28 @@
       <c r="K29" s="6"/>
       <c r="L29" s="6"/>
       <c r="M29" s="6"/>
-      <c r="N29" s="50"/>
-      <c r="O29" s="50"/>
-      <c r="P29" s="50"/>
-      <c r="Q29" s="50"/>
-      <c r="R29" s="50"/>
-      <c r="S29" s="50"/>
-      <c r="T29" s="50"/>
-      <c r="U29" s="50"/>
-      <c r="V29" s="50"/>
-      <c r="W29" s="50"/>
-      <c r="X29" s="50"/>
-      <c r="Y29" s="50"/>
-      <c r="Z29" s="50"/>
-      <c r="AA29" s="50"/>
-      <c r="AB29" s="50"/>
-      <c r="AC29" s="50"/>
-      <c r="AD29" s="50"/>
-      <c r="AE29" s="50"/>
-      <c r="AF29" s="50"/>
-      <c r="AG29" s="50"/>
-      <c r="AH29" s="50"/>
-      <c r="AI29" s="50"/>
+      <c r="N29" s="34"/>
+      <c r="O29" s="34"/>
+      <c r="P29" s="34"/>
+      <c r="Q29" s="34"/>
+      <c r="R29" s="34"/>
+      <c r="S29" s="34"/>
+      <c r="T29" s="34"/>
+      <c r="U29" s="34"/>
+      <c r="V29" s="34"/>
+      <c r="W29" s="34"/>
+      <c r="X29" s="34"/>
+      <c r="Y29" s="34"/>
+      <c r="Z29" s="34"/>
+      <c r="AA29" s="34"/>
+      <c r="AB29" s="34"/>
+      <c r="AC29" s="34"/>
+      <c r="AD29" s="34"/>
+      <c r="AE29" s="34"/>
+      <c r="AF29" s="34"/>
+      <c r="AG29" s="34"/>
+      <c r="AH29" s="34"/>
+      <c r="AI29" s="34"/>
       <c r="AJ29" s="6"/>
       <c r="AK29" s="7"/>
     </row>
@@ -17143,28 +17300,28 @@
       <c r="K30" s="6"/>
       <c r="L30" s="6"/>
       <c r="M30" s="6"/>
-      <c r="N30" s="50"/>
-      <c r="O30" s="50"/>
-      <c r="P30" s="50"/>
-      <c r="Q30" s="50"/>
-      <c r="R30" s="50"/>
-      <c r="S30" s="50"/>
-      <c r="T30" s="50"/>
-      <c r="U30" s="50"/>
-      <c r="V30" s="50"/>
-      <c r="W30" s="50"/>
-      <c r="X30" s="50"/>
-      <c r="Y30" s="50"/>
-      <c r="Z30" s="50"/>
-      <c r="AA30" s="50"/>
-      <c r="AB30" s="50"/>
-      <c r="AC30" s="50"/>
-      <c r="AD30" s="50"/>
-      <c r="AE30" s="50"/>
-      <c r="AF30" s="50"/>
-      <c r="AG30" s="50"/>
-      <c r="AH30" s="50"/>
-      <c r="AI30" s="50"/>
+      <c r="N30" s="34"/>
+      <c r="O30" s="34"/>
+      <c r="P30" s="34"/>
+      <c r="Q30" s="34"/>
+      <c r="R30" s="34"/>
+      <c r="S30" s="34"/>
+      <c r="T30" s="34"/>
+      <c r="U30" s="34"/>
+      <c r="V30" s="34"/>
+      <c r="W30" s="34"/>
+      <c r="X30" s="34"/>
+      <c r="Y30" s="34"/>
+      <c r="Z30" s="34"/>
+      <c r="AA30" s="34"/>
+      <c r="AB30" s="34"/>
+      <c r="AC30" s="34"/>
+      <c r="AD30" s="34"/>
+      <c r="AE30" s="34"/>
+      <c r="AF30" s="34"/>
+      <c r="AG30" s="34"/>
+      <c r="AH30" s="34"/>
+      <c r="AI30" s="34"/>
       <c r="AJ30" s="6"/>
       <c r="AK30" s="7"/>
     </row>
@@ -17179,28 +17336,28 @@
       <c r="K31" s="6"/>
       <c r="L31" s="6"/>
       <c r="M31" s="6"/>
-      <c r="N31" s="50"/>
-      <c r="O31" s="50"/>
-      <c r="P31" s="50"/>
-      <c r="Q31" s="50"/>
-      <c r="R31" s="50"/>
-      <c r="S31" s="50"/>
-      <c r="T31" s="50"/>
-      <c r="U31" s="50"/>
-      <c r="V31" s="50"/>
-      <c r="W31" s="50"/>
-      <c r="X31" s="50"/>
-      <c r="Y31" s="50"/>
-      <c r="Z31" s="50"/>
-      <c r="AA31" s="50"/>
-      <c r="AB31" s="50"/>
-      <c r="AC31" s="50"/>
-      <c r="AD31" s="50"/>
-      <c r="AE31" s="50"/>
-      <c r="AF31" s="50"/>
-      <c r="AG31" s="50"/>
-      <c r="AH31" s="50"/>
-      <c r="AI31" s="50"/>
+      <c r="N31" s="34"/>
+      <c r="O31" s="34"/>
+      <c r="P31" s="34"/>
+      <c r="Q31" s="34"/>
+      <c r="R31" s="34"/>
+      <c r="S31" s="34"/>
+      <c r="T31" s="34"/>
+      <c r="U31" s="34"/>
+      <c r="V31" s="34"/>
+      <c r="W31" s="34"/>
+      <c r="X31" s="34"/>
+      <c r="Y31" s="34"/>
+      <c r="Z31" s="34"/>
+      <c r="AA31" s="34"/>
+      <c r="AB31" s="34"/>
+      <c r="AC31" s="34"/>
+      <c r="AD31" s="34"/>
+      <c r="AE31" s="34"/>
+      <c r="AF31" s="34"/>
+      <c r="AG31" s="34"/>
+      <c r="AH31" s="34"/>
+      <c r="AI31" s="34"/>
       <c r="AJ31" s="6"/>
       <c r="AK31" s="7"/>
     </row>
@@ -17215,172 +17372,172 @@
       <c r="K32" s="6"/>
       <c r="L32" s="6"/>
       <c r="M32" s="6"/>
-      <c r="N32" s="50"/>
-      <c r="O32" s="50"/>
-      <c r="P32" s="50"/>
-      <c r="Q32" s="50"/>
-      <c r="R32" s="50"/>
-      <c r="S32" s="50"/>
-      <c r="T32" s="50"/>
-      <c r="U32" s="50"/>
-      <c r="V32" s="50"/>
-      <c r="W32" s="50"/>
-      <c r="X32" s="50"/>
-      <c r="Y32" s="50"/>
-      <c r="Z32" s="50"/>
-      <c r="AA32" s="50"/>
-      <c r="AB32" s="50"/>
-      <c r="AC32" s="50"/>
-      <c r="AD32" s="50"/>
-      <c r="AE32" s="50"/>
-      <c r="AF32" s="50"/>
-      <c r="AG32" s="50"/>
-      <c r="AH32" s="50"/>
-      <c r="AI32" s="50"/>
+      <c r="N32" s="34"/>
+      <c r="O32" s="34"/>
+      <c r="P32" s="34"/>
+      <c r="Q32" s="34"/>
+      <c r="R32" s="34"/>
+      <c r="S32" s="34"/>
+      <c r="T32" s="34"/>
+      <c r="U32" s="34"/>
+      <c r="V32" s="34"/>
+      <c r="W32" s="34"/>
+      <c r="X32" s="34"/>
+      <c r="Y32" s="34"/>
+      <c r="Z32" s="34"/>
+      <c r="AA32" s="34"/>
+      <c r="AB32" s="34"/>
+      <c r="AC32" s="34"/>
+      <c r="AD32" s="34"/>
+      <c r="AE32" s="34"/>
+      <c r="AF32" s="34"/>
+      <c r="AG32" s="34"/>
+      <c r="AH32" s="34"/>
+      <c r="AI32" s="34"/>
       <c r="AJ32" s="6"/>
       <c r="AK32" s="7"/>
     </row>
     <row r="33" spans="4:37" ht="12" customHeight="1">
       <c r="D33" s="5"/>
-      <c r="E33" s="50"/>
-      <c r="F33" s="50"/>
-      <c r="G33" s="50"/>
-      <c r="H33" s="50"/>
-      <c r="I33" s="50"/>
-      <c r="J33" s="50"/>
-      <c r="K33" s="50"/>
-      <c r="L33" s="50"/>
-      <c r="M33" s="50"/>
-      <c r="N33" s="50"/>
-      <c r="O33" s="50"/>
-      <c r="P33" s="50"/>
-      <c r="Q33" s="50"/>
-      <c r="R33" s="50"/>
-      <c r="S33" s="50"/>
-      <c r="T33" s="50"/>
-      <c r="U33" s="50"/>
-      <c r="V33" s="50"/>
-      <c r="W33" s="50"/>
-      <c r="X33" s="50"/>
-      <c r="Y33" s="50"/>
-      <c r="Z33" s="50"/>
-      <c r="AA33" s="50"/>
-      <c r="AB33" s="50"/>
-      <c r="AC33" s="50"/>
-      <c r="AD33" s="50"/>
-      <c r="AE33" s="50"/>
-      <c r="AF33" s="50"/>
-      <c r="AG33" s="50"/>
-      <c r="AH33" s="50"/>
-      <c r="AI33" s="50"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="34"/>
+      <c r="G33" s="34"/>
+      <c r="H33" s="34"/>
+      <c r="I33" s="34"/>
+      <c r="J33" s="34"/>
+      <c r="K33" s="34"/>
+      <c r="L33" s="34"/>
+      <c r="M33" s="34"/>
+      <c r="N33" s="34"/>
+      <c r="O33" s="34"/>
+      <c r="P33" s="34"/>
+      <c r="Q33" s="34"/>
+      <c r="R33" s="34"/>
+      <c r="S33" s="34"/>
+      <c r="T33" s="34"/>
+      <c r="U33" s="34"/>
+      <c r="V33" s="34"/>
+      <c r="W33" s="34"/>
+      <c r="X33" s="34"/>
+      <c r="Y33" s="34"/>
+      <c r="Z33" s="34"/>
+      <c r="AA33" s="34"/>
+      <c r="AB33" s="34"/>
+      <c r="AC33" s="34"/>
+      <c r="AD33" s="34"/>
+      <c r="AE33" s="34"/>
+      <c r="AF33" s="34"/>
+      <c r="AG33" s="34"/>
+      <c r="AH33" s="34"/>
+      <c r="AI33" s="34"/>
       <c r="AJ33" s="6"/>
       <c r="AK33" s="7"/>
     </row>
     <row r="34" spans="4:37" ht="12" customHeight="1">
       <c r="D34" s="5"/>
-      <c r="E34" s="50"/>
-      <c r="F34" s="50"/>
-      <c r="G34" s="50"/>
-      <c r="H34" s="50"/>
-      <c r="I34" s="50"/>
-      <c r="J34" s="50"/>
-      <c r="K34" s="50"/>
-      <c r="L34" s="50"/>
-      <c r="M34" s="50"/>
-      <c r="N34" s="50"/>
-      <c r="O34" s="50"/>
-      <c r="P34" s="50"/>
-      <c r="Q34" s="50"/>
-      <c r="R34" s="50"/>
-      <c r="S34" s="50"/>
-      <c r="T34" s="50"/>
-      <c r="U34" s="50"/>
-      <c r="V34" s="50"/>
-      <c r="W34" s="50"/>
-      <c r="X34" s="50"/>
-      <c r="Y34" s="50"/>
-      <c r="Z34" s="50"/>
-      <c r="AA34" s="50"/>
-      <c r="AB34" s="50"/>
-      <c r="AC34" s="50"/>
-      <c r="AD34" s="50"/>
-      <c r="AE34" s="50"/>
-      <c r="AF34" s="50"/>
-      <c r="AG34" s="50"/>
-      <c r="AH34" s="50"/>
-      <c r="AI34" s="50"/>
+      <c r="E34" s="34"/>
+      <c r="F34" s="34"/>
+      <c r="G34" s="34"/>
+      <c r="H34" s="34"/>
+      <c r="I34" s="34"/>
+      <c r="J34" s="34"/>
+      <c r="K34" s="34"/>
+      <c r="L34" s="34"/>
+      <c r="M34" s="34"/>
+      <c r="N34" s="34"/>
+      <c r="O34" s="34"/>
+      <c r="P34" s="34"/>
+      <c r="Q34" s="34"/>
+      <c r="R34" s="34"/>
+      <c r="S34" s="34"/>
+      <c r="T34" s="34"/>
+      <c r="U34" s="34"/>
+      <c r="V34" s="34"/>
+      <c r="W34" s="34"/>
+      <c r="X34" s="34"/>
+      <c r="Y34" s="34"/>
+      <c r="Z34" s="34"/>
+      <c r="AA34" s="34"/>
+      <c r="AB34" s="34"/>
+      <c r="AC34" s="34"/>
+      <c r="AD34" s="34"/>
+      <c r="AE34" s="34"/>
+      <c r="AF34" s="34"/>
+      <c r="AG34" s="34"/>
+      <c r="AH34" s="34"/>
+      <c r="AI34" s="34"/>
       <c r="AJ34" s="6"/>
       <c r="AK34" s="7"/>
     </row>
     <row r="35" spans="4:37" ht="12" customHeight="1">
       <c r="D35" s="5"/>
-      <c r="E35" s="50"/>
-      <c r="F35" s="50"/>
-      <c r="G35" s="50"/>
-      <c r="H35" s="50"/>
-      <c r="I35" s="50"/>
-      <c r="J35" s="50"/>
-      <c r="K35" s="50"/>
-      <c r="L35" s="50"/>
-      <c r="M35" s="50"/>
-      <c r="N35" s="50"/>
-      <c r="O35" s="50"/>
-      <c r="P35" s="50"/>
-      <c r="Q35" s="50"/>
-      <c r="R35" s="50"/>
-      <c r="S35" s="50"/>
-      <c r="T35" s="50"/>
-      <c r="U35" s="50"/>
-      <c r="V35" s="50"/>
-      <c r="W35" s="50"/>
-      <c r="X35" s="50"/>
-      <c r="Y35" s="50"/>
-      <c r="Z35" s="50"/>
-      <c r="AA35" s="50"/>
-      <c r="AB35" s="50"/>
-      <c r="AC35" s="50"/>
-      <c r="AD35" s="50"/>
-      <c r="AE35" s="50"/>
-      <c r="AF35" s="50"/>
-      <c r="AG35" s="50"/>
-      <c r="AH35" s="50"/>
-      <c r="AI35" s="50"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="34"/>
+      <c r="H35" s="34"/>
+      <c r="I35" s="34"/>
+      <c r="J35" s="34"/>
+      <c r="K35" s="34"/>
+      <c r="L35" s="34"/>
+      <c r="M35" s="34"/>
+      <c r="N35" s="34"/>
+      <c r="O35" s="34"/>
+      <c r="P35" s="34"/>
+      <c r="Q35" s="34"/>
+      <c r="R35" s="34"/>
+      <c r="S35" s="34"/>
+      <c r="T35" s="34"/>
+      <c r="U35" s="34"/>
+      <c r="V35" s="34"/>
+      <c r="W35" s="34"/>
+      <c r="X35" s="34"/>
+      <c r="Y35" s="34"/>
+      <c r="Z35" s="34"/>
+      <c r="AA35" s="34"/>
+      <c r="AB35" s="34"/>
+      <c r="AC35" s="34"/>
+      <c r="AD35" s="34"/>
+      <c r="AE35" s="34"/>
+      <c r="AF35" s="34"/>
+      <c r="AG35" s="34"/>
+      <c r="AH35" s="34"/>
+      <c r="AI35" s="34"/>
       <c r="AJ35" s="6"/>
       <c r="AK35" s="7"/>
     </row>
     <row r="36" spans="4:37" ht="12" customHeight="1">
       <c r="D36" s="5"/>
-      <c r="E36" s="50"/>
-      <c r="F36" s="50"/>
-      <c r="G36" s="50"/>
-      <c r="H36" s="50"/>
-      <c r="I36" s="50"/>
-      <c r="J36" s="50"/>
-      <c r="K36" s="50"/>
-      <c r="L36" s="50"/>
-      <c r="M36" s="50"/>
-      <c r="N36" s="50"/>
-      <c r="O36" s="50"/>
-      <c r="P36" s="50"/>
-      <c r="Q36" s="50"/>
-      <c r="R36" s="50"/>
-      <c r="S36" s="50"/>
-      <c r="T36" s="50"/>
-      <c r="U36" s="50"/>
-      <c r="V36" s="50"/>
-      <c r="W36" s="50"/>
-      <c r="X36" s="50"/>
-      <c r="Y36" s="50"/>
-      <c r="Z36" s="50"/>
-      <c r="AA36" s="50"/>
-      <c r="AB36" s="50"/>
-      <c r="AC36" s="50"/>
-      <c r="AD36" s="50"/>
-      <c r="AE36" s="50"/>
-      <c r="AF36" s="50"/>
-      <c r="AG36" s="50"/>
-      <c r="AH36" s="50"/>
-      <c r="AI36" s="50"/>
+      <c r="E36" s="34"/>
+      <c r="F36" s="34"/>
+      <c r="G36" s="34"/>
+      <c r="H36" s="34"/>
+      <c r="I36" s="34"/>
+      <c r="J36" s="34"/>
+      <c r="K36" s="34"/>
+      <c r="L36" s="34"/>
+      <c r="M36" s="34"/>
+      <c r="N36" s="34"/>
+      <c r="O36" s="34"/>
+      <c r="P36" s="34"/>
+      <c r="Q36" s="34"/>
+      <c r="R36" s="34"/>
+      <c r="S36" s="34"/>
+      <c r="T36" s="34"/>
+      <c r="U36" s="34"/>
+      <c r="V36" s="34"/>
+      <c r="W36" s="34"/>
+      <c r="X36" s="34"/>
+      <c r="Y36" s="34"/>
+      <c r="Z36" s="34"/>
+      <c r="AA36" s="34"/>
+      <c r="AB36" s="34"/>
+      <c r="AC36" s="34"/>
+      <c r="AD36" s="34"/>
+      <c r="AE36" s="34"/>
+      <c r="AF36" s="34"/>
+      <c r="AG36" s="34"/>
+      <c r="AH36" s="34"/>
+      <c r="AI36" s="34"/>
       <c r="AJ36" s="6"/>
       <c r="AK36" s="7"/>
     </row>
@@ -17467,28 +17624,28 @@
       <c r="K39" s="6"/>
       <c r="L39" s="6"/>
       <c r="M39" s="6"/>
-      <c r="N39" s="50"/>
-      <c r="O39" s="50"/>
-      <c r="P39" s="50"/>
-      <c r="Q39" s="50"/>
-      <c r="R39" s="50"/>
-      <c r="S39" s="50"/>
-      <c r="T39" s="50"/>
-      <c r="U39" s="50"/>
-      <c r="V39" s="50"/>
-      <c r="W39" s="50"/>
-      <c r="X39" s="50"/>
-      <c r="Y39" s="50"/>
-      <c r="Z39" s="50"/>
-      <c r="AA39" s="50"/>
-      <c r="AB39" s="50"/>
-      <c r="AC39" s="50"/>
-      <c r="AD39" s="50"/>
-      <c r="AE39" s="50"/>
-      <c r="AF39" s="50"/>
-      <c r="AG39" s="50"/>
-      <c r="AH39" s="50"/>
-      <c r="AI39" s="50"/>
+      <c r="N39" s="34"/>
+      <c r="O39" s="34"/>
+      <c r="P39" s="34"/>
+      <c r="Q39" s="34"/>
+      <c r="R39" s="34"/>
+      <c r="S39" s="34"/>
+      <c r="T39" s="34"/>
+      <c r="U39" s="34"/>
+      <c r="V39" s="34"/>
+      <c r="W39" s="34"/>
+      <c r="X39" s="34"/>
+      <c r="Y39" s="34"/>
+      <c r="Z39" s="34"/>
+      <c r="AA39" s="34"/>
+      <c r="AB39" s="34"/>
+      <c r="AC39" s="34"/>
+      <c r="AD39" s="34"/>
+      <c r="AE39" s="34"/>
+      <c r="AF39" s="34"/>
+      <c r="AG39" s="34"/>
+      <c r="AH39" s="34"/>
+      <c r="AI39" s="34"/>
       <c r="AJ39" s="6"/>
       <c r="AK39" s="7"/>
     </row>
@@ -17503,28 +17660,28 @@
       <c r="K40" s="6"/>
       <c r="L40" s="6"/>
       <c r="M40" s="6"/>
-      <c r="N40" s="50"/>
-      <c r="O40" s="50"/>
-      <c r="P40" s="50"/>
-      <c r="Q40" s="50"/>
-      <c r="R40" s="50"/>
-      <c r="S40" s="50"/>
-      <c r="T40" s="50"/>
-      <c r="U40" s="50"/>
-      <c r="V40" s="50"/>
-      <c r="W40" s="50"/>
-      <c r="X40" s="50"/>
-      <c r="Y40" s="50"/>
-      <c r="Z40" s="50"/>
-      <c r="AA40" s="50"/>
-      <c r="AB40" s="50"/>
-      <c r="AC40" s="50"/>
-      <c r="AD40" s="50"/>
-      <c r="AE40" s="50"/>
-      <c r="AF40" s="50"/>
-      <c r="AG40" s="50"/>
-      <c r="AH40" s="50"/>
-      <c r="AI40" s="50"/>
+      <c r="N40" s="34"/>
+      <c r="O40" s="34"/>
+      <c r="P40" s="34"/>
+      <c r="Q40" s="34"/>
+      <c r="R40" s="34"/>
+      <c r="S40" s="34"/>
+      <c r="T40" s="34"/>
+      <c r="U40" s="34"/>
+      <c r="V40" s="34"/>
+      <c r="W40" s="34"/>
+      <c r="X40" s="34"/>
+      <c r="Y40" s="34"/>
+      <c r="Z40" s="34"/>
+      <c r="AA40" s="34"/>
+      <c r="AB40" s="34"/>
+      <c r="AC40" s="34"/>
+      <c r="AD40" s="34"/>
+      <c r="AE40" s="34"/>
+      <c r="AF40" s="34"/>
+      <c r="AG40" s="34"/>
+      <c r="AH40" s="34"/>
+      <c r="AI40" s="34"/>
       <c r="AJ40" s="6"/>
       <c r="AK40" s="7"/>
     </row>
@@ -17539,28 +17696,28 @@
       <c r="K41" s="6"/>
       <c r="L41" s="6"/>
       <c r="M41" s="6"/>
-      <c r="N41" s="50"/>
-      <c r="O41" s="50"/>
-      <c r="P41" s="50"/>
-      <c r="Q41" s="50"/>
-      <c r="R41" s="50"/>
-      <c r="S41" s="50"/>
-      <c r="T41" s="50"/>
-      <c r="U41" s="50"/>
-      <c r="V41" s="50"/>
-      <c r="W41" s="50"/>
-      <c r="X41" s="50"/>
-      <c r="Y41" s="50"/>
-      <c r="Z41" s="50"/>
-      <c r="AA41" s="50"/>
-      <c r="AB41" s="50"/>
-      <c r="AC41" s="50"/>
-      <c r="AD41" s="50"/>
-      <c r="AE41" s="50"/>
-      <c r="AF41" s="50"/>
-      <c r="AG41" s="50"/>
-      <c r="AH41" s="50"/>
-      <c r="AI41" s="50"/>
+      <c r="N41" s="34"/>
+      <c r="O41" s="34"/>
+      <c r="P41" s="34"/>
+      <c r="Q41" s="34"/>
+      <c r="R41" s="34"/>
+      <c r="S41" s="34"/>
+      <c r="T41" s="34"/>
+      <c r="U41" s="34"/>
+      <c r="V41" s="34"/>
+      <c r="W41" s="34"/>
+      <c r="X41" s="34"/>
+      <c r="Y41" s="34"/>
+      <c r="Z41" s="34"/>
+      <c r="AA41" s="34"/>
+      <c r="AB41" s="34"/>
+      <c r="AC41" s="34"/>
+      <c r="AD41" s="34"/>
+      <c r="AE41" s="34"/>
+      <c r="AF41" s="34"/>
+      <c r="AG41" s="34"/>
+      <c r="AH41" s="34"/>
+      <c r="AI41" s="34"/>
       <c r="AJ41" s="6"/>
       <c r="AK41" s="7"/>
     </row>
@@ -17575,28 +17732,28 @@
       <c r="K42" s="6"/>
       <c r="L42" s="6"/>
       <c r="M42" s="6"/>
-      <c r="N42" s="50"/>
-      <c r="O42" s="50"/>
-      <c r="P42" s="50"/>
-      <c r="Q42" s="50"/>
-      <c r="R42" s="50"/>
-      <c r="S42" s="50"/>
-      <c r="T42" s="50"/>
-      <c r="U42" s="50"/>
-      <c r="V42" s="50"/>
-      <c r="W42" s="50"/>
-      <c r="X42" s="50"/>
-      <c r="Y42" s="50"/>
-      <c r="Z42" s="50"/>
-      <c r="AA42" s="50"/>
-      <c r="AB42" s="50"/>
-      <c r="AC42" s="50"/>
-      <c r="AD42" s="50"/>
-      <c r="AE42" s="50"/>
-      <c r="AF42" s="50"/>
-      <c r="AG42" s="50"/>
-      <c r="AH42" s="50"/>
-      <c r="AI42" s="50"/>
+      <c r="N42" s="34"/>
+      <c r="O42" s="34"/>
+      <c r="P42" s="34"/>
+      <c r="Q42" s="34"/>
+      <c r="R42" s="34"/>
+      <c r="S42" s="34"/>
+      <c r="T42" s="34"/>
+      <c r="U42" s="34"/>
+      <c r="V42" s="34"/>
+      <c r="W42" s="34"/>
+      <c r="X42" s="34"/>
+      <c r="Y42" s="34"/>
+      <c r="Z42" s="34"/>
+      <c r="AA42" s="34"/>
+      <c r="AB42" s="34"/>
+      <c r="AC42" s="34"/>
+      <c r="AD42" s="34"/>
+      <c r="AE42" s="34"/>
+      <c r="AF42" s="34"/>
+      <c r="AG42" s="34"/>
+      <c r="AH42" s="34"/>
+      <c r="AI42" s="34"/>
       <c r="AJ42" s="6"/>
       <c r="AK42" s="7"/>
     </row>
@@ -17611,28 +17768,28 @@
       <c r="K43" s="6"/>
       <c r="L43" s="6"/>
       <c r="M43" s="6"/>
-      <c r="N43" s="50"/>
-      <c r="O43" s="50"/>
-      <c r="P43" s="50"/>
-      <c r="Q43" s="50"/>
-      <c r="R43" s="50"/>
-      <c r="S43" s="50"/>
-      <c r="T43" s="50"/>
-      <c r="U43" s="50"/>
-      <c r="V43" s="50"/>
-      <c r="W43" s="50"/>
-      <c r="X43" s="50"/>
-      <c r="Y43" s="50"/>
-      <c r="Z43" s="50"/>
-      <c r="AA43" s="50"/>
-      <c r="AB43" s="50"/>
-      <c r="AC43" s="50"/>
-      <c r="AD43" s="50"/>
-      <c r="AE43" s="50"/>
-      <c r="AF43" s="50"/>
-      <c r="AG43" s="50"/>
-      <c r="AH43" s="50"/>
-      <c r="AI43" s="50"/>
+      <c r="N43" s="34"/>
+      <c r="O43" s="34"/>
+      <c r="P43" s="34"/>
+      <c r="Q43" s="34"/>
+      <c r="R43" s="34"/>
+      <c r="S43" s="34"/>
+      <c r="T43" s="34"/>
+      <c r="U43" s="34"/>
+      <c r="V43" s="34"/>
+      <c r="W43" s="34"/>
+      <c r="X43" s="34"/>
+      <c r="Y43" s="34"/>
+      <c r="Z43" s="34"/>
+      <c r="AA43" s="34"/>
+      <c r="AB43" s="34"/>
+      <c r="AC43" s="34"/>
+      <c r="AD43" s="34"/>
+      <c r="AE43" s="34"/>
+      <c r="AF43" s="34"/>
+      <c r="AG43" s="34"/>
+      <c r="AH43" s="34"/>
+      <c r="AI43" s="34"/>
       <c r="AJ43" s="6"/>
       <c r="AK43" s="7"/>
     </row>
@@ -17647,28 +17804,28 @@
       <c r="K44" s="6"/>
       <c r="L44" s="6"/>
       <c r="M44" s="6"/>
-      <c r="N44" s="50"/>
-      <c r="O44" s="50"/>
-      <c r="P44" s="50"/>
-      <c r="Q44" s="50"/>
-      <c r="R44" s="50"/>
-      <c r="S44" s="50"/>
-      <c r="T44" s="50"/>
-      <c r="U44" s="50"/>
-      <c r="V44" s="50"/>
-      <c r="W44" s="50"/>
-      <c r="X44" s="50"/>
-      <c r="Y44" s="50"/>
-      <c r="Z44" s="50"/>
-      <c r="AA44" s="50"/>
-      <c r="AB44" s="50"/>
-      <c r="AC44" s="50"/>
-      <c r="AD44" s="50"/>
-      <c r="AE44" s="50"/>
-      <c r="AF44" s="50"/>
-      <c r="AG44" s="50"/>
-      <c r="AH44" s="50"/>
-      <c r="AI44" s="50"/>
+      <c r="N44" s="34"/>
+      <c r="O44" s="34"/>
+      <c r="P44" s="34"/>
+      <c r="Q44" s="34"/>
+      <c r="R44" s="34"/>
+      <c r="S44" s="34"/>
+      <c r="T44" s="34"/>
+      <c r="U44" s="34"/>
+      <c r="V44" s="34"/>
+      <c r="W44" s="34"/>
+      <c r="X44" s="34"/>
+      <c r="Y44" s="34"/>
+      <c r="Z44" s="34"/>
+      <c r="AA44" s="34"/>
+      <c r="AB44" s="34"/>
+      <c r="AC44" s="34"/>
+      <c r="AD44" s="34"/>
+      <c r="AE44" s="34"/>
+      <c r="AF44" s="34"/>
+      <c r="AG44" s="34"/>
+      <c r="AH44" s="34"/>
+      <c r="AI44" s="34"/>
       <c r="AJ44" s="6"/>
       <c r="AK44" s="7"/>
     </row>
@@ -17683,28 +17840,28 @@
       <c r="K45" s="6"/>
       <c r="L45" s="6"/>
       <c r="M45" s="6"/>
-      <c r="N45" s="50"/>
-      <c r="O45" s="50"/>
-      <c r="P45" s="50"/>
-      <c r="Q45" s="50"/>
-      <c r="R45" s="50"/>
-      <c r="S45" s="50"/>
-      <c r="T45" s="50"/>
-      <c r="U45" s="50"/>
-      <c r="V45" s="50"/>
-      <c r="W45" s="50"/>
-      <c r="X45" s="50"/>
-      <c r="Y45" s="50"/>
-      <c r="Z45" s="50"/>
-      <c r="AA45" s="50"/>
-      <c r="AB45" s="50"/>
-      <c r="AC45" s="50"/>
-      <c r="AD45" s="50"/>
-      <c r="AE45" s="50"/>
-      <c r="AF45" s="50"/>
-      <c r="AG45" s="50"/>
-      <c r="AH45" s="50"/>
-      <c r="AI45" s="50"/>
+      <c r="N45" s="34"/>
+      <c r="O45" s="34"/>
+      <c r="P45" s="34"/>
+      <c r="Q45" s="34"/>
+      <c r="R45" s="34"/>
+      <c r="S45" s="34"/>
+      <c r="T45" s="34"/>
+      <c r="U45" s="34"/>
+      <c r="V45" s="34"/>
+      <c r="W45" s="34"/>
+      <c r="X45" s="34"/>
+      <c r="Y45" s="34"/>
+      <c r="Z45" s="34"/>
+      <c r="AA45" s="34"/>
+      <c r="AB45" s="34"/>
+      <c r="AC45" s="34"/>
+      <c r="AD45" s="34"/>
+      <c r="AE45" s="34"/>
+      <c r="AF45" s="34"/>
+      <c r="AG45" s="34"/>
+      <c r="AH45" s="34"/>
+      <c r="AI45" s="34"/>
       <c r="AJ45" s="6"/>
       <c r="AK45" s="7"/>
     </row>
@@ -17719,28 +17876,28 @@
       <c r="K46" s="6"/>
       <c r="L46" s="6"/>
       <c r="M46" s="6"/>
-      <c r="N46" s="50"/>
-      <c r="O46" s="50"/>
-      <c r="P46" s="50"/>
-      <c r="Q46" s="50"/>
-      <c r="R46" s="50"/>
-      <c r="S46" s="50"/>
-      <c r="T46" s="50"/>
-      <c r="U46" s="50"/>
-      <c r="V46" s="50"/>
-      <c r="W46" s="50"/>
-      <c r="X46" s="50"/>
-      <c r="Y46" s="50"/>
-      <c r="Z46" s="50"/>
-      <c r="AA46" s="50"/>
-      <c r="AB46" s="50"/>
-      <c r="AC46" s="50"/>
-      <c r="AD46" s="50"/>
-      <c r="AE46" s="50"/>
-      <c r="AF46" s="50"/>
-      <c r="AG46" s="50"/>
-      <c r="AH46" s="50"/>
-      <c r="AI46" s="50"/>
+      <c r="N46" s="34"/>
+      <c r="O46" s="34"/>
+      <c r="P46" s="34"/>
+      <c r="Q46" s="34"/>
+      <c r="R46" s="34"/>
+      <c r="S46" s="34"/>
+      <c r="T46" s="34"/>
+      <c r="U46" s="34"/>
+      <c r="V46" s="34"/>
+      <c r="W46" s="34"/>
+      <c r="X46" s="34"/>
+      <c r="Y46" s="34"/>
+      <c r="Z46" s="34"/>
+      <c r="AA46" s="34"/>
+      <c r="AB46" s="34"/>
+      <c r="AC46" s="34"/>
+      <c r="AD46" s="34"/>
+      <c r="AE46" s="34"/>
+      <c r="AF46" s="34"/>
+      <c r="AG46" s="34"/>
+      <c r="AH46" s="34"/>
+      <c r="AI46" s="34"/>
       <c r="AJ46" s="6"/>
       <c r="AK46" s="7"/>
     </row>
@@ -17755,28 +17912,28 @@
       <c r="K47" s="6"/>
       <c r="L47" s="6"/>
       <c r="M47" s="6"/>
-      <c r="N47" s="50"/>
-      <c r="O47" s="50"/>
-      <c r="P47" s="50"/>
-      <c r="Q47" s="50"/>
-      <c r="R47" s="50"/>
-      <c r="S47" s="50"/>
-      <c r="T47" s="50"/>
-      <c r="U47" s="50"/>
-      <c r="V47" s="50"/>
-      <c r="W47" s="50"/>
-      <c r="X47" s="50"/>
-      <c r="Y47" s="50"/>
-      <c r="Z47" s="50"/>
-      <c r="AA47" s="50"/>
-      <c r="AB47" s="50"/>
-      <c r="AC47" s="50"/>
-      <c r="AD47" s="50"/>
-      <c r="AE47" s="50"/>
-      <c r="AF47" s="50"/>
-      <c r="AG47" s="50"/>
-      <c r="AH47" s="50"/>
-      <c r="AI47" s="50"/>
+      <c r="N47" s="34"/>
+      <c r="O47" s="34"/>
+      <c r="P47" s="34"/>
+      <c r="Q47" s="34"/>
+      <c r="R47" s="34"/>
+      <c r="S47" s="34"/>
+      <c r="T47" s="34"/>
+      <c r="U47" s="34"/>
+      <c r="V47" s="34"/>
+      <c r="W47" s="34"/>
+      <c r="X47" s="34"/>
+      <c r="Y47" s="34"/>
+      <c r="Z47" s="34"/>
+      <c r="AA47" s="34"/>
+      <c r="AB47" s="34"/>
+      <c r="AC47" s="34"/>
+      <c r="AD47" s="34"/>
+      <c r="AE47" s="34"/>
+      <c r="AF47" s="34"/>
+      <c r="AG47" s="34"/>
+      <c r="AH47" s="34"/>
+      <c r="AI47" s="34"/>
       <c r="AJ47" s="6"/>
       <c r="AK47" s="7"/>
     </row>
@@ -17791,172 +17948,172 @@
       <c r="K48" s="6"/>
       <c r="L48" s="6"/>
       <c r="M48" s="6"/>
-      <c r="N48" s="50"/>
-      <c r="O48" s="50"/>
-      <c r="P48" s="50"/>
-      <c r="Q48" s="50"/>
-      <c r="R48" s="50"/>
-      <c r="S48" s="50"/>
-      <c r="T48" s="50"/>
-      <c r="U48" s="50"/>
-      <c r="V48" s="50"/>
-      <c r="W48" s="50"/>
-      <c r="X48" s="50"/>
-      <c r="Y48" s="50"/>
-      <c r="Z48" s="50"/>
-      <c r="AA48" s="50"/>
-      <c r="AB48" s="50"/>
-      <c r="AC48" s="50"/>
-      <c r="AD48" s="50"/>
-      <c r="AE48" s="50"/>
-      <c r="AF48" s="50"/>
-      <c r="AG48" s="50"/>
-      <c r="AH48" s="50"/>
-      <c r="AI48" s="50"/>
+      <c r="N48" s="34"/>
+      <c r="O48" s="34"/>
+      <c r="P48" s="34"/>
+      <c r="Q48" s="34"/>
+      <c r="R48" s="34"/>
+      <c r="S48" s="34"/>
+      <c r="T48" s="34"/>
+      <c r="U48" s="34"/>
+      <c r="V48" s="34"/>
+      <c r="W48" s="34"/>
+      <c r="X48" s="34"/>
+      <c r="Y48" s="34"/>
+      <c r="Z48" s="34"/>
+      <c r="AA48" s="34"/>
+      <c r="AB48" s="34"/>
+      <c r="AC48" s="34"/>
+      <c r="AD48" s="34"/>
+      <c r="AE48" s="34"/>
+      <c r="AF48" s="34"/>
+      <c r="AG48" s="34"/>
+      <c r="AH48" s="34"/>
+      <c r="AI48" s="34"/>
       <c r="AJ48" s="6"/>
       <c r="AK48" s="7"/>
     </row>
     <row r="49" spans="4:37" ht="12" customHeight="1">
       <c r="D49" s="5"/>
-      <c r="E49" s="50"/>
-      <c r="F49" s="50"/>
-      <c r="G49" s="50"/>
-      <c r="H49" s="50"/>
-      <c r="I49" s="50"/>
-      <c r="J49" s="50"/>
-      <c r="K49" s="50"/>
-      <c r="L49" s="50"/>
-      <c r="M49" s="50"/>
-      <c r="N49" s="50"/>
-      <c r="O49" s="50"/>
-      <c r="P49" s="50"/>
-      <c r="Q49" s="50"/>
-      <c r="R49" s="50"/>
-      <c r="S49" s="50"/>
-      <c r="T49" s="50"/>
-      <c r="U49" s="50"/>
-      <c r="V49" s="50"/>
-      <c r="W49" s="50"/>
-      <c r="X49" s="50"/>
-      <c r="Y49" s="50"/>
-      <c r="Z49" s="50"/>
-      <c r="AA49" s="50"/>
-      <c r="AB49" s="50"/>
-      <c r="AC49" s="50"/>
-      <c r="AD49" s="50"/>
-      <c r="AE49" s="50"/>
-      <c r="AF49" s="50"/>
-      <c r="AG49" s="50"/>
-      <c r="AH49" s="50"/>
-      <c r="AI49" s="50"/>
+      <c r="E49" s="34"/>
+      <c r="F49" s="34"/>
+      <c r="G49" s="34"/>
+      <c r="H49" s="34"/>
+      <c r="I49" s="34"/>
+      <c r="J49" s="34"/>
+      <c r="K49" s="34"/>
+      <c r="L49" s="34"/>
+      <c r="M49" s="34"/>
+      <c r="N49" s="34"/>
+      <c r="O49" s="34"/>
+      <c r="P49" s="34"/>
+      <c r="Q49" s="34"/>
+      <c r="R49" s="34"/>
+      <c r="S49" s="34"/>
+      <c r="T49" s="34"/>
+      <c r="U49" s="34"/>
+      <c r="V49" s="34"/>
+      <c r="W49" s="34"/>
+      <c r="X49" s="34"/>
+      <c r="Y49" s="34"/>
+      <c r="Z49" s="34"/>
+      <c r="AA49" s="34"/>
+      <c r="AB49" s="34"/>
+      <c r="AC49" s="34"/>
+      <c r="AD49" s="34"/>
+      <c r="AE49" s="34"/>
+      <c r="AF49" s="34"/>
+      <c r="AG49" s="34"/>
+      <c r="AH49" s="34"/>
+      <c r="AI49" s="34"/>
       <c r="AJ49" s="6"/>
       <c r="AK49" s="7"/>
     </row>
     <row r="50" spans="4:37" ht="12" customHeight="1">
       <c r="D50" s="5"/>
-      <c r="E50" s="50"/>
-      <c r="F50" s="50"/>
-      <c r="G50" s="50"/>
-      <c r="H50" s="50"/>
-      <c r="I50" s="50"/>
-      <c r="J50" s="50"/>
-      <c r="K50" s="50"/>
-      <c r="L50" s="50"/>
-      <c r="M50" s="50"/>
-      <c r="N50" s="50"/>
-      <c r="O50" s="50"/>
-      <c r="P50" s="50"/>
-      <c r="Q50" s="50"/>
-      <c r="R50" s="50"/>
-      <c r="S50" s="50"/>
-      <c r="T50" s="50"/>
-      <c r="U50" s="50"/>
-      <c r="V50" s="50"/>
-      <c r="W50" s="50"/>
-      <c r="X50" s="50"/>
-      <c r="Y50" s="50"/>
-      <c r="Z50" s="50"/>
-      <c r="AA50" s="50"/>
-      <c r="AB50" s="50"/>
-      <c r="AC50" s="50"/>
-      <c r="AD50" s="50"/>
-      <c r="AE50" s="50"/>
-      <c r="AF50" s="50"/>
-      <c r="AG50" s="50"/>
-      <c r="AH50" s="50"/>
-      <c r="AI50" s="50"/>
+      <c r="E50" s="34"/>
+      <c r="F50" s="34"/>
+      <c r="G50" s="34"/>
+      <c r="H50" s="34"/>
+      <c r="I50" s="34"/>
+      <c r="J50" s="34"/>
+      <c r="K50" s="34"/>
+      <c r="L50" s="34"/>
+      <c r="M50" s="34"/>
+      <c r="N50" s="34"/>
+      <c r="O50" s="34"/>
+      <c r="P50" s="34"/>
+      <c r="Q50" s="34"/>
+      <c r="R50" s="34"/>
+      <c r="S50" s="34"/>
+      <c r="T50" s="34"/>
+      <c r="U50" s="34"/>
+      <c r="V50" s="34"/>
+      <c r="W50" s="34"/>
+      <c r="X50" s="34"/>
+      <c r="Y50" s="34"/>
+      <c r="Z50" s="34"/>
+      <c r="AA50" s="34"/>
+      <c r="AB50" s="34"/>
+      <c r="AC50" s="34"/>
+      <c r="AD50" s="34"/>
+      <c r="AE50" s="34"/>
+      <c r="AF50" s="34"/>
+      <c r="AG50" s="34"/>
+      <c r="AH50" s="34"/>
+      <c r="AI50" s="34"/>
       <c r="AJ50" s="6"/>
       <c r="AK50" s="7"/>
     </row>
     <row r="51" spans="4:37" ht="12" customHeight="1">
       <c r="D51" s="5"/>
-      <c r="E51" s="50"/>
-      <c r="F51" s="50"/>
-      <c r="G51" s="50"/>
-      <c r="H51" s="50"/>
-      <c r="I51" s="50"/>
-      <c r="J51" s="50"/>
-      <c r="K51" s="50"/>
-      <c r="L51" s="50"/>
-      <c r="M51" s="50"/>
-      <c r="N51" s="50"/>
-      <c r="O51" s="50"/>
-      <c r="P51" s="50"/>
-      <c r="Q51" s="50"/>
-      <c r="R51" s="50"/>
-      <c r="S51" s="50"/>
-      <c r="T51" s="50"/>
-      <c r="U51" s="50"/>
-      <c r="V51" s="50"/>
-      <c r="W51" s="50"/>
-      <c r="X51" s="50"/>
-      <c r="Y51" s="50"/>
-      <c r="Z51" s="50"/>
-      <c r="AA51" s="50"/>
-      <c r="AB51" s="50"/>
-      <c r="AC51" s="50"/>
-      <c r="AD51" s="50"/>
-      <c r="AE51" s="50"/>
-      <c r="AF51" s="50"/>
-      <c r="AG51" s="50"/>
-      <c r="AH51" s="50"/>
-      <c r="AI51" s="50"/>
+      <c r="E51" s="34"/>
+      <c r="F51" s="34"/>
+      <c r="G51" s="34"/>
+      <c r="H51" s="34"/>
+      <c r="I51" s="34"/>
+      <c r="J51" s="34"/>
+      <c r="K51" s="34"/>
+      <c r="L51" s="34"/>
+      <c r="M51" s="34"/>
+      <c r="N51" s="34"/>
+      <c r="O51" s="34"/>
+      <c r="P51" s="34"/>
+      <c r="Q51" s="34"/>
+      <c r="R51" s="34"/>
+      <c r="S51" s="34"/>
+      <c r="T51" s="34"/>
+      <c r="U51" s="34"/>
+      <c r="V51" s="34"/>
+      <c r="W51" s="34"/>
+      <c r="X51" s="34"/>
+      <c r="Y51" s="34"/>
+      <c r="Z51" s="34"/>
+      <c r="AA51" s="34"/>
+      <c r="AB51" s="34"/>
+      <c r="AC51" s="34"/>
+      <c r="AD51" s="34"/>
+      <c r="AE51" s="34"/>
+      <c r="AF51" s="34"/>
+      <c r="AG51" s="34"/>
+      <c r="AH51" s="34"/>
+      <c r="AI51" s="34"/>
       <c r="AJ51" s="6"/>
       <c r="AK51" s="7"/>
     </row>
     <row r="52" spans="4:37" ht="12" customHeight="1">
       <c r="D52" s="5"/>
-      <c r="E52" s="50"/>
-      <c r="F52" s="50"/>
-      <c r="G52" s="50"/>
-      <c r="H52" s="50"/>
-      <c r="I52" s="50"/>
-      <c r="J52" s="50"/>
-      <c r="K52" s="50"/>
-      <c r="L52" s="50"/>
-      <c r="M52" s="50"/>
-      <c r="N52" s="50"/>
-      <c r="O52" s="50"/>
-      <c r="P52" s="50"/>
-      <c r="Q52" s="50"/>
-      <c r="R52" s="50"/>
-      <c r="S52" s="50"/>
-      <c r="T52" s="50"/>
-      <c r="U52" s="50"/>
-      <c r="V52" s="50"/>
-      <c r="W52" s="50"/>
-      <c r="X52" s="50"/>
-      <c r="Y52" s="50"/>
-      <c r="Z52" s="50"/>
-      <c r="AA52" s="50"/>
-      <c r="AB52" s="50"/>
-      <c r="AC52" s="50"/>
-      <c r="AD52" s="50"/>
-      <c r="AE52" s="50"/>
-      <c r="AF52" s="50"/>
-      <c r="AG52" s="50"/>
-      <c r="AH52" s="50"/>
-      <c r="AI52" s="50"/>
+      <c r="E52" s="34"/>
+      <c r="F52" s="34"/>
+      <c r="G52" s="34"/>
+      <c r="H52" s="34"/>
+      <c r="I52" s="34"/>
+      <c r="J52" s="34"/>
+      <c r="K52" s="34"/>
+      <c r="L52" s="34"/>
+      <c r="M52" s="34"/>
+      <c r="N52" s="34"/>
+      <c r="O52" s="34"/>
+      <c r="P52" s="34"/>
+      <c r="Q52" s="34"/>
+      <c r="R52" s="34"/>
+      <c r="S52" s="34"/>
+      <c r="T52" s="34"/>
+      <c r="U52" s="34"/>
+      <c r="V52" s="34"/>
+      <c r="W52" s="34"/>
+      <c r="X52" s="34"/>
+      <c r="Y52" s="34"/>
+      <c r="Z52" s="34"/>
+      <c r="AA52" s="34"/>
+      <c r="AB52" s="34"/>
+      <c r="AC52" s="34"/>
+      <c r="AD52" s="34"/>
+      <c r="AE52" s="34"/>
+      <c r="AF52" s="34"/>
+      <c r="AG52" s="34"/>
+      <c r="AH52" s="34"/>
+      <c r="AI52" s="34"/>
       <c r="AJ52" s="6"/>
       <c r="AK52" s="7"/>
     </row>
@@ -18293,27 +18450,27 @@
       <c r="I62" s="6"/>
       <c r="J62" s="6"/>
       <c r="K62" s="6"/>
-      <c r="L62" s="51" t="s">
+      <c r="L62" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="M62" s="51"/>
-      <c r="N62" s="51"/>
-      <c r="O62" s="51"/>
-      <c r="P62" s="51"/>
-      <c r="Q62" s="51"/>
-      <c r="R62" s="51"/>
-      <c r="S62" s="51"/>
-      <c r="T62" s="51"/>
-      <c r="U62" s="51"/>
-      <c r="V62" s="51"/>
-      <c r="W62" s="51"/>
-      <c r="X62" s="51"/>
-      <c r="Y62" s="51"/>
-      <c r="Z62" s="51"/>
-      <c r="AA62" s="51"/>
-      <c r="AB62" s="51"/>
-      <c r="AC62" s="51"/>
-      <c r="AD62" s="51"/>
+      <c r="M62" s="35"/>
+      <c r="N62" s="35"/>
+      <c r="O62" s="35"/>
+      <c r="P62" s="35"/>
+      <c r="Q62" s="35"/>
+      <c r="R62" s="35"/>
+      <c r="S62" s="35"/>
+      <c r="T62" s="35"/>
+      <c r="U62" s="35"/>
+      <c r="V62" s="35"/>
+      <c r="W62" s="35"/>
+      <c r="X62" s="35"/>
+      <c r="Y62" s="35"/>
+      <c r="Z62" s="35"/>
+      <c r="AA62" s="35"/>
+      <c r="AB62" s="35"/>
+      <c r="AC62" s="35"/>
+      <c r="AD62" s="35"/>
       <c r="AE62" s="6"/>
       <c r="AF62" s="6"/>
       <c r="AG62" s="6"/>
@@ -18331,25 +18488,25 @@
       <c r="I63" s="6"/>
       <c r="J63" s="6"/>
       <c r="K63" s="6"/>
-      <c r="L63" s="51"/>
-      <c r="M63" s="51"/>
-      <c r="N63" s="51"/>
-      <c r="O63" s="51"/>
-      <c r="P63" s="51"/>
-      <c r="Q63" s="51"/>
-      <c r="R63" s="51"/>
-      <c r="S63" s="51"/>
-      <c r="T63" s="51"/>
-      <c r="U63" s="51"/>
-      <c r="V63" s="51"/>
-      <c r="W63" s="51"/>
-      <c r="X63" s="51"/>
-      <c r="Y63" s="51"/>
-      <c r="Z63" s="51"/>
-      <c r="AA63" s="51"/>
-      <c r="AB63" s="51"/>
-      <c r="AC63" s="51"/>
-      <c r="AD63" s="51"/>
+      <c r="L63" s="35"/>
+      <c r="M63" s="35"/>
+      <c r="N63" s="35"/>
+      <c r="O63" s="35"/>
+      <c r="P63" s="35"/>
+      <c r="Q63" s="35"/>
+      <c r="R63" s="35"/>
+      <c r="S63" s="35"/>
+      <c r="T63" s="35"/>
+      <c r="U63" s="35"/>
+      <c r="V63" s="35"/>
+      <c r="W63" s="35"/>
+      <c r="X63" s="35"/>
+      <c r="Y63" s="35"/>
+      <c r="Z63" s="35"/>
+      <c r="AA63" s="35"/>
+      <c r="AB63" s="35"/>
+      <c r="AC63" s="35"/>
+      <c r="AD63" s="35"/>
       <c r="AE63" s="6"/>
       <c r="AF63" s="6"/>
       <c r="AG63" s="6"/>
@@ -18432,6 +18589,27 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="A1:H4"/>
+    <mergeCell ref="I1:R4"/>
+    <mergeCell ref="S1:U2"/>
+    <mergeCell ref="V1:AD2"/>
+    <mergeCell ref="AE1:AG2"/>
+    <mergeCell ref="AL1:AN2"/>
+    <mergeCell ref="AO1:AR2"/>
+    <mergeCell ref="S3:U4"/>
+    <mergeCell ref="V3:AD4"/>
+    <mergeCell ref="AE3:AG4"/>
+    <mergeCell ref="AH3:AK4"/>
+    <mergeCell ref="AL3:AN4"/>
+    <mergeCell ref="AO3:AR4"/>
+    <mergeCell ref="AH1:AK2"/>
+    <mergeCell ref="L62:AD63"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:N6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:N7"/>
+    <mergeCell ref="D12:F13"/>
+    <mergeCell ref="H12:J13"/>
     <mergeCell ref="N23:AI32"/>
     <mergeCell ref="E33:AI36"/>
     <mergeCell ref="N39:AI48"/>
@@ -18441,27 +18619,6 @@
     <mergeCell ref="AA12:AD13"/>
     <mergeCell ref="AF12:AI13"/>
     <mergeCell ref="E18:M19"/>
-    <mergeCell ref="L62:AD63"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:N6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:N7"/>
-    <mergeCell ref="D12:F13"/>
-    <mergeCell ref="H12:J13"/>
-    <mergeCell ref="AL1:AN2"/>
-    <mergeCell ref="AO1:AR2"/>
-    <mergeCell ref="S3:U4"/>
-    <mergeCell ref="V3:AD4"/>
-    <mergeCell ref="AE3:AG4"/>
-    <mergeCell ref="AH3:AK4"/>
-    <mergeCell ref="AL3:AN4"/>
-    <mergeCell ref="AO3:AR4"/>
-    <mergeCell ref="A1:H4"/>
-    <mergeCell ref="I1:R4"/>
-    <mergeCell ref="S1:U2"/>
-    <mergeCell ref="V1:AD2"/>
-    <mergeCell ref="AE1:AG2"/>
-    <mergeCell ref="AH1:AK2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -18485,256 +18642,251 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:44" ht="12" customHeight="1">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="31" t="s">
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="40" t="s">
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="47"/>
+      <c r="R1" s="48"/>
+      <c r="S1" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="T1" s="41"/>
-      <c r="U1" s="42"/>
-      <c r="V1" s="43" t="s">
+      <c r="T1" s="25"/>
+      <c r="U1" s="26"/>
+      <c r="V1" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="W1" s="32"/>
-      <c r="X1" s="32"/>
-      <c r="Y1" s="32"/>
-      <c r="Z1" s="32"/>
-      <c r="AA1" s="32"/>
-      <c r="AB1" s="32"/>
-      <c r="AC1" s="32"/>
-      <c r="AD1" s="33"/>
-      <c r="AE1" s="44" t="s">
+      <c r="W1" s="47"/>
+      <c r="X1" s="47"/>
+      <c r="Y1" s="47"/>
+      <c r="Z1" s="47"/>
+      <c r="AA1" s="47"/>
+      <c r="AB1" s="47"/>
+      <c r="AC1" s="47"/>
+      <c r="AD1" s="48"/>
+      <c r="AE1" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="AF1" s="44"/>
-      <c r="AG1" s="44"/>
-      <c r="AH1" s="48" t="s">
+      <c r="AF1" s="52"/>
+      <c r="AG1" s="52"/>
+      <c r="AH1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="AI1" s="49"/>
-      <c r="AJ1" s="49"/>
-      <c r="AK1" s="49"/>
-      <c r="AL1" s="45" t="s">
+      <c r="AI1" s="54"/>
+      <c r="AJ1" s="54"/>
+      <c r="AK1" s="54"/>
+      <c r="AL1" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="AM1" s="45"/>
-      <c r="AN1" s="45"/>
-      <c r="AO1" s="46" t="s">
+      <c r="AM1" s="43"/>
+      <c r="AN1" s="43"/>
+      <c r="AO1" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="AP1" s="47"/>
-      <c r="AQ1" s="47"/>
-      <c r="AR1" s="47"/>
+      <c r="AP1" s="45"/>
+      <c r="AQ1" s="45"/>
+      <c r="AR1" s="45"/>
     </row>
     <row r="2" spans="1:44" ht="12" customHeight="1">
-      <c r="A2" s="25"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="36"/>
-      <c r="S2" s="40"/>
-      <c r="T2" s="41"/>
-      <c r="U2" s="42"/>
-      <c r="V2" s="37"/>
-      <c r="W2" s="38"/>
-      <c r="X2" s="38"/>
-      <c r="Y2" s="38"/>
-      <c r="Z2" s="38"/>
-      <c r="AA2" s="38"/>
-      <c r="AB2" s="38"/>
-      <c r="AC2" s="38"/>
-      <c r="AD2" s="39"/>
-      <c r="AE2" s="44"/>
-      <c r="AF2" s="44"/>
-      <c r="AG2" s="44"/>
-      <c r="AH2" s="49"/>
-      <c r="AI2" s="49"/>
-      <c r="AJ2" s="49"/>
-      <c r="AK2" s="49"/>
-      <c r="AL2" s="45"/>
-      <c r="AM2" s="45"/>
-      <c r="AN2" s="45"/>
-      <c r="AO2" s="47"/>
-      <c r="AP2" s="47"/>
-      <c r="AQ2" s="47"/>
-      <c r="AR2" s="47"/>
+      <c r="A2" s="58"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="66"/>
+      <c r="O2" s="66"/>
+      <c r="P2" s="66"/>
+      <c r="Q2" s="66"/>
+      <c r="R2" s="67"/>
+      <c r="S2" s="24"/>
+      <c r="T2" s="25"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="49"/>
+      <c r="W2" s="50"/>
+      <c r="X2" s="50"/>
+      <c r="Y2" s="50"/>
+      <c r="Z2" s="50"/>
+      <c r="AA2" s="50"/>
+      <c r="AB2" s="50"/>
+      <c r="AC2" s="50"/>
+      <c r="AD2" s="51"/>
+      <c r="AE2" s="52"/>
+      <c r="AF2" s="52"/>
+      <c r="AG2" s="52"/>
+      <c r="AH2" s="54"/>
+      <c r="AI2" s="54"/>
+      <c r="AJ2" s="54"/>
+      <c r="AK2" s="54"/>
+      <c r="AL2" s="43"/>
+      <c r="AM2" s="43"/>
+      <c r="AN2" s="43"/>
+      <c r="AO2" s="45"/>
+      <c r="AP2" s="45"/>
+      <c r="AQ2" s="45"/>
+      <c r="AR2" s="45"/>
     </row>
     <row r="3" spans="1:44" ht="12" customHeight="1">
-      <c r="A3" s="25"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35"/>
-      <c r="O3" s="35"/>
-      <c r="P3" s="35"/>
-      <c r="Q3" s="35"/>
-      <c r="R3" s="36"/>
-      <c r="S3" s="40" t="s">
+      <c r="A3" s="58"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="66"/>
+      <c r="N3" s="66"/>
+      <c r="O3" s="66"/>
+      <c r="P3" s="66"/>
+      <c r="Q3" s="66"/>
+      <c r="R3" s="67"/>
+      <c r="S3" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="T3" s="41"/>
-      <c r="U3" s="42"/>
-      <c r="V3" s="43" t="s">
+      <c r="T3" s="25"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="W3" s="32"/>
-      <c r="X3" s="32"/>
-      <c r="Y3" s="32"/>
-      <c r="Z3" s="32"/>
-      <c r="AA3" s="32"/>
-      <c r="AB3" s="32"/>
-      <c r="AC3" s="32"/>
-      <c r="AD3" s="33"/>
-      <c r="AE3" s="44" t="s">
+      <c r="W3" s="47"/>
+      <c r="X3" s="47"/>
+      <c r="Y3" s="47"/>
+      <c r="Z3" s="47"/>
+      <c r="AA3" s="47"/>
+      <c r="AB3" s="47"/>
+      <c r="AC3" s="47"/>
+      <c r="AD3" s="48"/>
+      <c r="AE3" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="AF3" s="44"/>
-      <c r="AG3" s="44"/>
-      <c r="AH3" s="48"/>
-      <c r="AI3" s="49"/>
-      <c r="AJ3" s="49"/>
-      <c r="AK3" s="49"/>
-      <c r="AL3" s="44"/>
-      <c r="AM3" s="44"/>
-      <c r="AN3" s="44"/>
-      <c r="AO3" s="49"/>
-      <c r="AP3" s="49"/>
-      <c r="AQ3" s="49"/>
-      <c r="AR3" s="49"/>
+      <c r="AF3" s="52"/>
+      <c r="AG3" s="52"/>
+      <c r="AH3" s="53"/>
+      <c r="AI3" s="54"/>
+      <c r="AJ3" s="54"/>
+      <c r="AK3" s="54"/>
+      <c r="AL3" s="52"/>
+      <c r="AM3" s="52"/>
+      <c r="AN3" s="52"/>
+      <c r="AO3" s="54"/>
+      <c r="AP3" s="54"/>
+      <c r="AQ3" s="54"/>
+      <c r="AR3" s="54"/>
     </row>
     <row r="4" spans="1:44" ht="12" customHeight="1">
-      <c r="A4" s="28"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38"/>
-      <c r="O4" s="38"/>
-      <c r="P4" s="38"/>
-      <c r="Q4" s="38"/>
-      <c r="R4" s="39"/>
-      <c r="S4" s="40"/>
-      <c r="T4" s="41"/>
-      <c r="U4" s="42"/>
-      <c r="V4" s="37"/>
-      <c r="W4" s="38"/>
-      <c r="X4" s="38"/>
-      <c r="Y4" s="38"/>
-      <c r="Z4" s="38"/>
-      <c r="AA4" s="38"/>
-      <c r="AB4" s="38"/>
-      <c r="AC4" s="38"/>
-      <c r="AD4" s="39"/>
-      <c r="AE4" s="44"/>
-      <c r="AF4" s="44"/>
-      <c r="AG4" s="44"/>
-      <c r="AH4" s="49"/>
-      <c r="AI4" s="49"/>
-      <c r="AJ4" s="49"/>
-      <c r="AK4" s="49"/>
-      <c r="AL4" s="44"/>
-      <c r="AM4" s="44"/>
-      <c r="AN4" s="44"/>
-      <c r="AO4" s="49"/>
-      <c r="AP4" s="49"/>
-      <c r="AQ4" s="49"/>
-      <c r="AR4" s="49"/>
+      <c r="A4" s="61"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="50"/>
+      <c r="N4" s="50"/>
+      <c r="O4" s="50"/>
+      <c r="P4" s="50"/>
+      <c r="Q4" s="50"/>
+      <c r="R4" s="51"/>
+      <c r="S4" s="24"/>
+      <c r="T4" s="25"/>
+      <c r="U4" s="26"/>
+      <c r="V4" s="49"/>
+      <c r="W4" s="50"/>
+      <c r="X4" s="50"/>
+      <c r="Y4" s="50"/>
+      <c r="Z4" s="50"/>
+      <c r="AA4" s="50"/>
+      <c r="AB4" s="50"/>
+      <c r="AC4" s="50"/>
+      <c r="AD4" s="51"/>
+      <c r="AE4" s="52"/>
+      <c r="AF4" s="52"/>
+      <c r="AG4" s="52"/>
+      <c r="AH4" s="54"/>
+      <c r="AI4" s="54"/>
+      <c r="AJ4" s="54"/>
+      <c r="AK4" s="54"/>
+      <c r="AL4" s="52"/>
+      <c r="AM4" s="52"/>
+      <c r="AN4" s="52"/>
+      <c r="AO4" s="54"/>
+      <c r="AP4" s="54"/>
+      <c r="AQ4" s="54"/>
+      <c r="AR4" s="54"/>
     </row>
     <row r="6" spans="1:44" ht="12" customHeight="1">
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="55" t="s">
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="56"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="56"/>
-      <c r="M6" s="56"/>
-      <c r="N6" s="57"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="29"/>
     </row>
     <row r="7" spans="1:44" ht="12" customHeight="1">
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="55" t="s">
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="G7" s="56"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="56"/>
-      <c r="L7" s="56"/>
-      <c r="M7" s="56"/>
-      <c r="N7" s="57"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:N6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:N7"/>
-    <mergeCell ref="AL1:AN2"/>
     <mergeCell ref="AO1:AR2"/>
     <mergeCell ref="S3:U4"/>
     <mergeCell ref="V3:AD4"/>
@@ -18742,12 +18894,17 @@
     <mergeCell ref="AH3:AK4"/>
     <mergeCell ref="AL3:AN4"/>
     <mergeCell ref="AO3:AR4"/>
-    <mergeCell ref="A1:H4"/>
-    <mergeCell ref="I1:R4"/>
     <mergeCell ref="S1:U2"/>
     <mergeCell ref="V1:AD2"/>
     <mergeCell ref="AE1:AG2"/>
     <mergeCell ref="AH1:AK2"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:N6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:N7"/>
+    <mergeCell ref="AL1:AN2"/>
+    <mergeCell ref="A1:H4"/>
+    <mergeCell ref="I1:R4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -18770,256 +18927,251 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:44" ht="12" customHeight="1">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="31" t="s">
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="40" t="s">
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="47"/>
+      <c r="R1" s="48"/>
+      <c r="S1" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="T1" s="41"/>
-      <c r="U1" s="42"/>
-      <c r="V1" s="43" t="s">
+      <c r="T1" s="25"/>
+      <c r="U1" s="26"/>
+      <c r="V1" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="W1" s="32"/>
-      <c r="X1" s="32"/>
-      <c r="Y1" s="32"/>
-      <c r="Z1" s="32"/>
-      <c r="AA1" s="32"/>
-      <c r="AB1" s="32"/>
-      <c r="AC1" s="32"/>
-      <c r="AD1" s="33"/>
-      <c r="AE1" s="44" t="s">
+      <c r="W1" s="47"/>
+      <c r="X1" s="47"/>
+      <c r="Y1" s="47"/>
+      <c r="Z1" s="47"/>
+      <c r="AA1" s="47"/>
+      <c r="AB1" s="47"/>
+      <c r="AC1" s="47"/>
+      <c r="AD1" s="48"/>
+      <c r="AE1" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="AF1" s="44"/>
-      <c r="AG1" s="44"/>
-      <c r="AH1" s="48" t="s">
+      <c r="AF1" s="52"/>
+      <c r="AG1" s="52"/>
+      <c r="AH1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="AI1" s="49"/>
-      <c r="AJ1" s="49"/>
-      <c r="AK1" s="49"/>
-      <c r="AL1" s="45" t="s">
+      <c r="AI1" s="54"/>
+      <c r="AJ1" s="54"/>
+      <c r="AK1" s="54"/>
+      <c r="AL1" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="AM1" s="45"/>
-      <c r="AN1" s="45"/>
-      <c r="AO1" s="46" t="s">
+      <c r="AM1" s="43"/>
+      <c r="AN1" s="43"/>
+      <c r="AO1" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="AP1" s="47"/>
-      <c r="AQ1" s="47"/>
-      <c r="AR1" s="47"/>
+      <c r="AP1" s="45"/>
+      <c r="AQ1" s="45"/>
+      <c r="AR1" s="45"/>
     </row>
     <row r="2" spans="1:44" ht="12" customHeight="1">
-      <c r="A2" s="25"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="36"/>
-      <c r="S2" s="40"/>
-      <c r="T2" s="41"/>
-      <c r="U2" s="42"/>
-      <c r="V2" s="37"/>
-      <c r="W2" s="38"/>
-      <c r="X2" s="38"/>
-      <c r="Y2" s="38"/>
-      <c r="Z2" s="38"/>
-      <c r="AA2" s="38"/>
-      <c r="AB2" s="38"/>
-      <c r="AC2" s="38"/>
-      <c r="AD2" s="39"/>
-      <c r="AE2" s="44"/>
-      <c r="AF2" s="44"/>
-      <c r="AG2" s="44"/>
-      <c r="AH2" s="49"/>
-      <c r="AI2" s="49"/>
-      <c r="AJ2" s="49"/>
-      <c r="AK2" s="49"/>
-      <c r="AL2" s="45"/>
-      <c r="AM2" s="45"/>
-      <c r="AN2" s="45"/>
-      <c r="AO2" s="47"/>
-      <c r="AP2" s="47"/>
-      <c r="AQ2" s="47"/>
-      <c r="AR2" s="47"/>
+      <c r="A2" s="58"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="66"/>
+      <c r="O2" s="66"/>
+      <c r="P2" s="66"/>
+      <c r="Q2" s="66"/>
+      <c r="R2" s="67"/>
+      <c r="S2" s="24"/>
+      <c r="T2" s="25"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="49"/>
+      <c r="W2" s="50"/>
+      <c r="X2" s="50"/>
+      <c r="Y2" s="50"/>
+      <c r="Z2" s="50"/>
+      <c r="AA2" s="50"/>
+      <c r="AB2" s="50"/>
+      <c r="AC2" s="50"/>
+      <c r="AD2" s="51"/>
+      <c r="AE2" s="52"/>
+      <c r="AF2" s="52"/>
+      <c r="AG2" s="52"/>
+      <c r="AH2" s="54"/>
+      <c r="AI2" s="54"/>
+      <c r="AJ2" s="54"/>
+      <c r="AK2" s="54"/>
+      <c r="AL2" s="43"/>
+      <c r="AM2" s="43"/>
+      <c r="AN2" s="43"/>
+      <c r="AO2" s="45"/>
+      <c r="AP2" s="45"/>
+      <c r="AQ2" s="45"/>
+      <c r="AR2" s="45"/>
     </row>
     <row r="3" spans="1:44" ht="12" customHeight="1">
-      <c r="A3" s="25"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35"/>
-      <c r="O3" s="35"/>
-      <c r="P3" s="35"/>
-      <c r="Q3" s="35"/>
-      <c r="R3" s="36"/>
-      <c r="S3" s="40" t="s">
+      <c r="A3" s="58"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="66"/>
+      <c r="N3" s="66"/>
+      <c r="O3" s="66"/>
+      <c r="P3" s="66"/>
+      <c r="Q3" s="66"/>
+      <c r="R3" s="67"/>
+      <c r="S3" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="T3" s="41"/>
-      <c r="U3" s="42"/>
-      <c r="V3" s="43" t="s">
+      <c r="T3" s="25"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="W3" s="32"/>
-      <c r="X3" s="32"/>
-      <c r="Y3" s="32"/>
-      <c r="Z3" s="32"/>
-      <c r="AA3" s="32"/>
-      <c r="AB3" s="32"/>
-      <c r="AC3" s="32"/>
-      <c r="AD3" s="33"/>
-      <c r="AE3" s="44" t="s">
+      <c r="W3" s="47"/>
+      <c r="X3" s="47"/>
+      <c r="Y3" s="47"/>
+      <c r="Z3" s="47"/>
+      <c r="AA3" s="47"/>
+      <c r="AB3" s="47"/>
+      <c r="AC3" s="47"/>
+      <c r="AD3" s="48"/>
+      <c r="AE3" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="AF3" s="44"/>
-      <c r="AG3" s="44"/>
-      <c r="AH3" s="48"/>
-      <c r="AI3" s="49"/>
-      <c r="AJ3" s="49"/>
-      <c r="AK3" s="49"/>
-      <c r="AL3" s="44"/>
-      <c r="AM3" s="44"/>
-      <c r="AN3" s="44"/>
-      <c r="AO3" s="49"/>
-      <c r="AP3" s="49"/>
-      <c r="AQ3" s="49"/>
-      <c r="AR3" s="49"/>
+      <c r="AF3" s="52"/>
+      <c r="AG3" s="52"/>
+      <c r="AH3" s="53"/>
+      <c r="AI3" s="54"/>
+      <c r="AJ3" s="54"/>
+      <c r="AK3" s="54"/>
+      <c r="AL3" s="52"/>
+      <c r="AM3" s="52"/>
+      <c r="AN3" s="52"/>
+      <c r="AO3" s="54"/>
+      <c r="AP3" s="54"/>
+      <c r="AQ3" s="54"/>
+      <c r="AR3" s="54"/>
     </row>
     <row r="4" spans="1:44" ht="12" customHeight="1">
-      <c r="A4" s="28"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38"/>
-      <c r="O4" s="38"/>
-      <c r="P4" s="38"/>
-      <c r="Q4" s="38"/>
-      <c r="R4" s="39"/>
-      <c r="S4" s="40"/>
-      <c r="T4" s="41"/>
-      <c r="U4" s="42"/>
-      <c r="V4" s="37"/>
-      <c r="W4" s="38"/>
-      <c r="X4" s="38"/>
-      <c r="Y4" s="38"/>
-      <c r="Z4" s="38"/>
-      <c r="AA4" s="38"/>
-      <c r="AB4" s="38"/>
-      <c r="AC4" s="38"/>
-      <c r="AD4" s="39"/>
-      <c r="AE4" s="44"/>
-      <c r="AF4" s="44"/>
-      <c r="AG4" s="44"/>
-      <c r="AH4" s="49"/>
-      <c r="AI4" s="49"/>
-      <c r="AJ4" s="49"/>
-      <c r="AK4" s="49"/>
-      <c r="AL4" s="44"/>
-      <c r="AM4" s="44"/>
-      <c r="AN4" s="44"/>
-      <c r="AO4" s="49"/>
-      <c r="AP4" s="49"/>
-      <c r="AQ4" s="49"/>
-      <c r="AR4" s="49"/>
+      <c r="A4" s="61"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="50"/>
+      <c r="N4" s="50"/>
+      <c r="O4" s="50"/>
+      <c r="P4" s="50"/>
+      <c r="Q4" s="50"/>
+      <c r="R4" s="51"/>
+      <c r="S4" s="24"/>
+      <c r="T4" s="25"/>
+      <c r="U4" s="26"/>
+      <c r="V4" s="49"/>
+      <c r="W4" s="50"/>
+      <c r="X4" s="50"/>
+      <c r="Y4" s="50"/>
+      <c r="Z4" s="50"/>
+      <c r="AA4" s="50"/>
+      <c r="AB4" s="50"/>
+      <c r="AC4" s="50"/>
+      <c r="AD4" s="51"/>
+      <c r="AE4" s="52"/>
+      <c r="AF4" s="52"/>
+      <c r="AG4" s="52"/>
+      <c r="AH4" s="54"/>
+      <c r="AI4" s="54"/>
+      <c r="AJ4" s="54"/>
+      <c r="AK4" s="54"/>
+      <c r="AL4" s="52"/>
+      <c r="AM4" s="52"/>
+      <c r="AN4" s="52"/>
+      <c r="AO4" s="54"/>
+      <c r="AP4" s="54"/>
+      <c r="AQ4" s="54"/>
+      <c r="AR4" s="54"/>
     </row>
     <row r="6" spans="1:44" ht="12" customHeight="1">
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="55" t="s">
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="56"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="56"/>
-      <c r="M6" s="56"/>
-      <c r="N6" s="57"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="29"/>
     </row>
     <row r="7" spans="1:44" ht="12" customHeight="1">
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="55" t="s">
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="G7" s="56"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="56"/>
-      <c r="L7" s="56"/>
-      <c r="M7" s="56"/>
-      <c r="N7" s="57"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:N6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:N7"/>
-    <mergeCell ref="AL1:AN2"/>
     <mergeCell ref="AO1:AR2"/>
     <mergeCell ref="S3:U4"/>
     <mergeCell ref="V3:AD4"/>
@@ -19027,12 +19179,17 @@
     <mergeCell ref="AH3:AK4"/>
     <mergeCell ref="AL3:AN4"/>
     <mergeCell ref="AO3:AR4"/>
-    <mergeCell ref="A1:H4"/>
-    <mergeCell ref="I1:R4"/>
     <mergeCell ref="S1:U2"/>
     <mergeCell ref="V1:AD2"/>
     <mergeCell ref="AE1:AG2"/>
     <mergeCell ref="AH1:AK2"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:N6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:N7"/>
+    <mergeCell ref="AL1:AN2"/>
+    <mergeCell ref="A1:H4"/>
+    <mergeCell ref="I1:R4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
